--- a/data/Web_MEM_MGU/2024_01_mem_mgu.xlsx
+++ b/data/Web_MEM_MGU/2024_01_mem_mgu.xlsx
@@ -2589,7 +2589,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>1704067200</v>
+        <v>1704056400</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>1704070800</v>
+        <v>1704060000</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>1704074400</v>
+        <v>1704063600</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>1704078000</v>
+        <v>1704067200</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>1704081600</v>
+        <v>1704070800</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>1704085200</v>
+        <v>1704074400</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>1704088800</v>
+        <v>1704078000</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>1704092400</v>
+        <v>1704081600</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>1704096000</v>
+        <v>1704085200</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>1704099600</v>
+        <v>1704088800</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>1704103200</v>
+        <v>1704092400</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>1704106800</v>
+        <v>1704096000</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>1704110400</v>
+        <v>1704099600</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>1704114000</v>
+        <v>1704103200</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>1704117600</v>
+        <v>1704106800</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>1704121200</v>
+        <v>1704110400</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>1704124800</v>
+        <v>1704114000</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>1704128400</v>
+        <v>1704117600</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>1704132000</v>
+        <v>1704121200</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>1704135600</v>
+        <v>1704124800</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>1704139200</v>
+        <v>1704128400</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>1704142800</v>
+        <v>1704132000</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>1704146400</v>
+        <v>1704135600</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>1704150000</v>
+        <v>1704139200</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>1704153600</v>
+        <v>1704142800</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>1704157200</v>
+        <v>1704146400</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>1704160800</v>
+        <v>1704150000</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>1704164400</v>
+        <v>1704153600</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>1704168000</v>
+        <v>1704157200</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>1704171600</v>
+        <v>1704160800</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>1704175200</v>
+        <v>1704164400</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>1704178800</v>
+        <v>1704168000</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>1704182400</v>
+        <v>1704171600</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>1704186000</v>
+        <v>1704175200</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>1704189600</v>
+        <v>1704178800</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>1704193200</v>
+        <v>1704182400</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>1704196800</v>
+        <v>1704186000</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>1704200400</v>
+        <v>1704189600</v>
       </c>
       <c r="B39" t="s">
         <v>47</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>1704204000</v>
+        <v>1704193200</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>1704207600</v>
+        <v>1704196800</v>
       </c>
       <c r="B41" t="s">
         <v>49</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>1704211200</v>
+        <v>1704200400</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>1704214800</v>
+        <v>1704204000</v>
       </c>
       <c r="B43" t="s">
         <v>51</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>1704218400</v>
+        <v>1704207600</v>
       </c>
       <c r="B44" t="s">
         <v>52</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>1704222000</v>
+        <v>1704211200</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>1704225600</v>
+        <v>1704214800</v>
       </c>
       <c r="B46" t="s">
         <v>54</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>1704229200</v>
+        <v>1704218400</v>
       </c>
       <c r="B47" t="s">
         <v>55</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>1704232800</v>
+        <v>1704222000</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>1704236400</v>
+        <v>1704225600</v>
       </c>
       <c r="B49" t="s">
         <v>57</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>1704240000</v>
+        <v>1704229200</v>
       </c>
       <c r="B50" t="s">
         <v>58</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>1704243600</v>
+        <v>1704232800</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <v>1704247200</v>
+        <v>1704236400</v>
       </c>
       <c r="B52" t="s">
         <v>60</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>1704250800</v>
+        <v>1704240000</v>
       </c>
       <c r="B53" t="s">
         <v>61</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>1704254400</v>
+        <v>1704243600</v>
       </c>
       <c r="B54" t="s">
         <v>62</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>1704258000</v>
+        <v>1704247200</v>
       </c>
       <c r="B55" t="s">
         <v>63</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>1704261600</v>
+        <v>1704250800</v>
       </c>
       <c r="B56" t="s">
         <v>64</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
-        <v>1704265200</v>
+        <v>1704254400</v>
       </c>
       <c r="B57" t="s">
         <v>65</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>1704268800</v>
+        <v>1704258000</v>
       </c>
       <c r="B58" t="s">
         <v>66</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>1704272400</v>
+        <v>1704261600</v>
       </c>
       <c r="B59" t="s">
         <v>67</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>1704276000</v>
+        <v>1704265200</v>
       </c>
       <c r="B60" t="s">
         <v>68</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>1704279600</v>
+        <v>1704268800</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>1704283200</v>
+        <v>1704272400</v>
       </c>
       <c r="B62" t="s">
         <v>70</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>1704286800</v>
+        <v>1704276000</v>
       </c>
       <c r="B63" t="s">
         <v>71</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>1704290400</v>
+        <v>1704279600</v>
       </c>
       <c r="B64" t="s">
         <v>72</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>1704294000</v>
+        <v>1704283200</v>
       </c>
       <c r="B65" t="s">
         <v>73</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>1704297600</v>
+        <v>1704286800</v>
       </c>
       <c r="B66" t="s">
         <v>74</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>1704301200</v>
+        <v>1704290400</v>
       </c>
       <c r="B67" t="s">
         <v>75</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>1704304800</v>
+        <v>1704294000</v>
       </c>
       <c r="B68" t="s">
         <v>76</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>1704308400</v>
+        <v>1704297600</v>
       </c>
       <c r="B69" t="s">
         <v>77</v>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>1704312000</v>
+        <v>1704301200</v>
       </c>
       <c r="B70" t="s">
         <v>78</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>1704315600</v>
+        <v>1704304800</v>
       </c>
       <c r="B71" t="s">
         <v>79</v>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>1704319200</v>
+        <v>1704308400</v>
       </c>
       <c r="B72" t="s">
         <v>80</v>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>1704322800</v>
+        <v>1704312000</v>
       </c>
       <c r="B73" t="s">
         <v>81</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>1704326400</v>
+        <v>1704315600</v>
       </c>
       <c r="B74" t="s">
         <v>82</v>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>1704330000</v>
+        <v>1704319200</v>
       </c>
       <c r="B75" t="s">
         <v>83</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>1704333600</v>
+        <v>1704322800</v>
       </c>
       <c r="B76" t="s">
         <v>84</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
-        <v>1704337200</v>
+        <v>1704326400</v>
       </c>
       <c r="B77" t="s">
         <v>85</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
-        <v>1704340800</v>
+        <v>1704330000</v>
       </c>
       <c r="B78" t="s">
         <v>86</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
-        <v>1704344400</v>
+        <v>1704333600</v>
       </c>
       <c r="B79" t="s">
         <v>87</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
-        <v>1704348000</v>
+        <v>1704337200</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81">
-        <v>1704351600</v>
+        <v>1704340800</v>
       </c>
       <c r="B81" t="s">
         <v>89</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82">
-        <v>1704355200</v>
+        <v>1704344400</v>
       </c>
       <c r="B82" t="s">
         <v>90</v>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
-        <v>1704358800</v>
+        <v>1704348000</v>
       </c>
       <c r="B83" t="s">
         <v>91</v>
@@ -5213,7 +5213,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84">
-        <v>1704362400</v>
+        <v>1704351600</v>
       </c>
       <c r="B84" t="s">
         <v>92</v>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85">
-        <v>1704366000</v>
+        <v>1704355200</v>
       </c>
       <c r="B85" t="s">
         <v>93</v>
@@ -5277,7 +5277,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
-        <v>1704369600</v>
+        <v>1704358800</v>
       </c>
       <c r="B86" t="s">
         <v>94</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
-        <v>1704373200</v>
+        <v>1704362400</v>
       </c>
       <c r="B87" t="s">
         <v>95</v>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
-        <v>1704376800</v>
+        <v>1704366000</v>
       </c>
       <c r="B88" t="s">
         <v>96</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89">
-        <v>1704380400</v>
+        <v>1704369600</v>
       </c>
       <c r="B89" t="s">
         <v>97</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90">
-        <v>1704384000</v>
+        <v>1704373200</v>
       </c>
       <c r="B90" t="s">
         <v>98</v>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91">
-        <v>1704387600</v>
+        <v>1704376800</v>
       </c>
       <c r="B91" t="s">
         <v>99</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
-        <v>1704391200</v>
+        <v>1704380400</v>
       </c>
       <c r="B92" t="s">
         <v>100</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93">
-        <v>1704394800</v>
+        <v>1704384000</v>
       </c>
       <c r="B93" t="s">
         <v>101</v>
@@ -5533,7 +5533,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94">
-        <v>1704398400</v>
+        <v>1704387600</v>
       </c>
       <c r="B94" t="s">
         <v>102</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95">
-        <v>1704402000</v>
+        <v>1704391200</v>
       </c>
       <c r="B95" t="s">
         <v>103</v>
@@ -5597,7 +5597,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96">
-        <v>1704405600</v>
+        <v>1704394800</v>
       </c>
       <c r="B96" t="s">
         <v>104</v>
@@ -5629,7 +5629,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
-        <v>1704409200</v>
+        <v>1704398400</v>
       </c>
       <c r="B97" t="s">
         <v>105</v>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
-        <v>1704412800</v>
+        <v>1704402000</v>
       </c>
       <c r="B98" t="s">
         <v>106</v>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99">
-        <v>1704416400</v>
+        <v>1704405600</v>
       </c>
       <c r="B99" t="s">
         <v>107</v>
@@ -5725,7 +5725,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100">
-        <v>1704420000</v>
+        <v>1704409200</v>
       </c>
       <c r="B100" t="s">
         <v>108</v>
@@ -5757,7 +5757,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
-        <v>1704423600</v>
+        <v>1704412800</v>
       </c>
       <c r="B101" t="s">
         <v>109</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102">
-        <v>1704427200</v>
+        <v>1704416400</v>
       </c>
       <c r="B102" t="s">
         <v>110</v>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103">
-        <v>1704430800</v>
+        <v>1704420000</v>
       </c>
       <c r="B103" t="s">
         <v>111</v>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104">
-        <v>1704434400</v>
+        <v>1704423600</v>
       </c>
       <c r="B104" t="s">
         <v>112</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
-        <v>1704438000</v>
+        <v>1704427200</v>
       </c>
       <c r="B105" t="s">
         <v>113</v>
@@ -5917,7 +5917,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106">
-        <v>1704441600</v>
+        <v>1704430800</v>
       </c>
       <c r="B106" t="s">
         <v>114</v>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107">
-        <v>1704445200</v>
+        <v>1704434400</v>
       </c>
       <c r="B107" t="s">
         <v>115</v>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
-        <v>1704448800</v>
+        <v>1704438000</v>
       </c>
       <c r="B108" t="s">
         <v>116</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
-        <v>1704452400</v>
+        <v>1704441600</v>
       </c>
       <c r="B109" t="s">
         <v>117</v>
@@ -6045,7 +6045,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
-        <v>1704456000</v>
+        <v>1704445200</v>
       </c>
       <c r="B110" t="s">
         <v>118</v>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111">
-        <v>1704459600</v>
+        <v>1704448800</v>
       </c>
       <c r="B111" t="s">
         <v>119</v>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112">
-        <v>1704463200</v>
+        <v>1704452400</v>
       </c>
       <c r="B112" t="s">
         <v>120</v>
@@ -6141,7 +6141,7 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113">
-        <v>1704466800</v>
+        <v>1704456000</v>
       </c>
       <c r="B113" t="s">
         <v>121</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114">
-        <v>1704470400</v>
+        <v>1704459600</v>
       </c>
       <c r="B114" t="s">
         <v>122</v>
@@ -6205,7 +6205,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115">
-        <v>1704474000</v>
+        <v>1704463200</v>
       </c>
       <c r="B115" t="s">
         <v>123</v>
@@ -6237,7 +6237,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116">
-        <v>1704477600</v>
+        <v>1704466800</v>
       </c>
       <c r="B116" t="s">
         <v>124</v>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117">
-        <v>1704481200</v>
+        <v>1704470400</v>
       </c>
       <c r="B117" t="s">
         <v>125</v>
@@ -6301,7 +6301,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118">
-        <v>1704484800</v>
+        <v>1704474000</v>
       </c>
       <c r="B118" t="s">
         <v>126</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119">
-        <v>1704488400</v>
+        <v>1704477600</v>
       </c>
       <c r="B119" t="s">
         <v>127</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120">
-        <v>1704492000</v>
+        <v>1704481200</v>
       </c>
       <c r="B120" t="s">
         <v>128</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121">
-        <v>1704495600</v>
+        <v>1704484800</v>
       </c>
       <c r="B121" t="s">
         <v>129</v>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122">
-        <v>1704499200</v>
+        <v>1704488400</v>
       </c>
       <c r="B122" t="s">
         <v>130</v>
@@ -6461,7 +6461,7 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123">
-        <v>1704502800</v>
+        <v>1704492000</v>
       </c>
       <c r="B123" t="s">
         <v>131</v>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124">
-        <v>1704506400</v>
+        <v>1704495600</v>
       </c>
       <c r="B124" t="s">
         <v>132</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
-        <v>1704510000</v>
+        <v>1704499200</v>
       </c>
       <c r="B125" t="s">
         <v>133</v>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126">
-        <v>1704513600</v>
+        <v>1704502800</v>
       </c>
       <c r="B126" t="s">
         <v>134</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127">
-        <v>1704517200</v>
+        <v>1704506400</v>
       </c>
       <c r="B127" t="s">
         <v>135</v>
@@ -6621,7 +6621,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128">
-        <v>1704520800</v>
+        <v>1704510000</v>
       </c>
       <c r="B128" t="s">
         <v>136</v>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129">
-        <v>1704524400</v>
+        <v>1704513600</v>
       </c>
       <c r="B129" t="s">
         <v>137</v>
@@ -6685,7 +6685,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130">
-        <v>1704528000</v>
+        <v>1704517200</v>
       </c>
       <c r="B130" t="s">
         <v>138</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131">
-        <v>1704531600</v>
+        <v>1704520800</v>
       </c>
       <c r="B131" t="s">
         <v>139</v>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132">
-        <v>1704535200</v>
+        <v>1704524400</v>
       </c>
       <c r="B132" t="s">
         <v>140</v>
@@ -6781,7 +6781,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133">
-        <v>1704538800</v>
+        <v>1704528000</v>
       </c>
       <c r="B133" t="s">
         <v>141</v>
@@ -6813,7 +6813,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134">
-        <v>1704542400</v>
+        <v>1704531600</v>
       </c>
       <c r="B134" t="s">
         <v>142</v>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
-        <v>1704546000</v>
+        <v>1704535200</v>
       </c>
       <c r="B135" t="s">
         <v>143</v>
@@ -6877,7 +6877,7 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136">
-        <v>1704549600</v>
+        <v>1704538800</v>
       </c>
       <c r="B136" t="s">
         <v>144</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137">
-        <v>1704553200</v>
+        <v>1704542400</v>
       </c>
       <c r="B137" t="s">
         <v>145</v>
@@ -6941,7 +6941,7 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138">
-        <v>1704556800</v>
+        <v>1704546000</v>
       </c>
       <c r="B138" t="s">
         <v>146</v>
@@ -6973,7 +6973,7 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139">
-        <v>1704560400</v>
+        <v>1704549600</v>
       </c>
       <c r="B139" t="s">
         <v>147</v>
@@ -7005,7 +7005,7 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140">
-        <v>1704564000</v>
+        <v>1704553200</v>
       </c>
       <c r="B140" t="s">
         <v>148</v>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141">
-        <v>1704567600</v>
+        <v>1704556800</v>
       </c>
       <c r="B141" t="s">
         <v>149</v>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142">
-        <v>1704571200</v>
+        <v>1704560400</v>
       </c>
       <c r="B142" t="s">
         <v>150</v>
@@ -7101,7 +7101,7 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143">
-        <v>1704574800</v>
+        <v>1704564000</v>
       </c>
       <c r="B143" t="s">
         <v>151</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144">
-        <v>1704578400</v>
+        <v>1704567600</v>
       </c>
       <c r="B144" t="s">
         <v>152</v>
@@ -7165,7 +7165,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145">
-        <v>1704582000</v>
+        <v>1704571200</v>
       </c>
       <c r="B145" t="s">
         <v>153</v>
@@ -7197,7 +7197,7 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146">
-        <v>1704585600</v>
+        <v>1704574800</v>
       </c>
       <c r="B146" t="s">
         <v>154</v>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147">
-        <v>1704589200</v>
+        <v>1704578400</v>
       </c>
       <c r="B147" t="s">
         <v>155</v>
@@ -7261,7 +7261,7 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148">
-        <v>1704592800</v>
+        <v>1704582000</v>
       </c>
       <c r="B148" t="s">
         <v>156</v>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
-        <v>1704596400</v>
+        <v>1704585600</v>
       </c>
       <c r="B149" t="s">
         <v>157</v>
@@ -7325,7 +7325,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150">
-        <v>1704600000</v>
+        <v>1704589200</v>
       </c>
       <c r="B150" t="s">
         <v>158</v>
@@ -7357,7 +7357,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151">
-        <v>1704603600</v>
+        <v>1704592800</v>
       </c>
       <c r="B151" t="s">
         <v>159</v>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152">
-        <v>1704607200</v>
+        <v>1704596400</v>
       </c>
       <c r="B152" t="s">
         <v>160</v>
@@ -7421,7 +7421,7 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153">
-        <v>1704610800</v>
+        <v>1704600000</v>
       </c>
       <c r="B153" t="s">
         <v>161</v>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154">
-        <v>1704614400</v>
+        <v>1704603600</v>
       </c>
       <c r="B154" t="s">
         <v>162</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155">
-        <v>1704618000</v>
+        <v>1704607200</v>
       </c>
       <c r="B155" t="s">
         <v>163</v>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156">
-        <v>1704621600</v>
+        <v>1704610800</v>
       </c>
       <c r="B156" t="s">
         <v>164</v>
@@ -7549,7 +7549,7 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157">
-        <v>1704625200</v>
+        <v>1704614400</v>
       </c>
       <c r="B157" t="s">
         <v>165</v>
@@ -7581,7 +7581,7 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158">
-        <v>1704628800</v>
+        <v>1704618000</v>
       </c>
       <c r="B158" t="s">
         <v>166</v>
@@ -7613,7 +7613,7 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159">
-        <v>1704632400</v>
+        <v>1704621600</v>
       </c>
       <c r="B159" t="s">
         <v>167</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160">
-        <v>1704636000</v>
+        <v>1704625200</v>
       </c>
       <c r="B160" t="s">
         <v>168</v>
@@ -7677,7 +7677,7 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161">
-        <v>1704639600</v>
+        <v>1704628800</v>
       </c>
       <c r="B161" t="s">
         <v>169</v>
@@ -7709,7 +7709,7 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162">
-        <v>1704643200</v>
+        <v>1704632400</v>
       </c>
       <c r="B162" t="s">
         <v>170</v>
@@ -7741,7 +7741,7 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163">
-        <v>1704646800</v>
+        <v>1704636000</v>
       </c>
       <c r="B163" t="s">
         <v>171</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164">
-        <v>1704650400</v>
+        <v>1704639600</v>
       </c>
       <c r="B164" t="s">
         <v>172</v>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165">
-        <v>1704654000</v>
+        <v>1704643200</v>
       </c>
       <c r="B165" t="s">
         <v>173</v>
@@ -7837,7 +7837,7 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166">
-        <v>1704657600</v>
+        <v>1704646800</v>
       </c>
       <c r="B166" t="s">
         <v>174</v>
@@ -7869,7 +7869,7 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167">
-        <v>1704661200</v>
+        <v>1704650400</v>
       </c>
       <c r="B167" t="s">
         <v>175</v>
@@ -7901,7 +7901,7 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168">
-        <v>1704664800</v>
+        <v>1704654000</v>
       </c>
       <c r="B168" t="s">
         <v>176</v>
@@ -7933,7 +7933,7 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169">
-        <v>1704668400</v>
+        <v>1704657600</v>
       </c>
       <c r="B169" t="s">
         <v>177</v>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170">
-        <v>1704672000</v>
+        <v>1704661200</v>
       </c>
       <c r="B170" t="s">
         <v>178</v>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171">
-        <v>1704675600</v>
+        <v>1704664800</v>
       </c>
       <c r="B171" t="s">
         <v>179</v>
@@ -8029,7 +8029,7 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172">
-        <v>1704679200</v>
+        <v>1704668400</v>
       </c>
       <c r="B172" t="s">
         <v>180</v>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173">
-        <v>1704682800</v>
+        <v>1704672000</v>
       </c>
       <c r="B173" t="s">
         <v>181</v>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174">
-        <v>1704686400</v>
+        <v>1704675600</v>
       </c>
       <c r="B174" t="s">
         <v>182</v>
@@ -8125,7 +8125,7 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175">
-        <v>1704690000</v>
+        <v>1704679200</v>
       </c>
       <c r="B175" t="s">
         <v>183</v>
@@ -8157,7 +8157,7 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176">
-        <v>1704693600</v>
+        <v>1704682800</v>
       </c>
       <c r="B176" t="s">
         <v>184</v>
@@ -8189,7 +8189,7 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177">
-        <v>1704697200</v>
+        <v>1704686400</v>
       </c>
       <c r="B177" t="s">
         <v>185</v>
@@ -8221,7 +8221,7 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178">
-        <v>1704700800</v>
+        <v>1704690000</v>
       </c>
       <c r="B178" t="s">
         <v>186</v>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179">
-        <v>1704704400</v>
+        <v>1704693600</v>
       </c>
       <c r="B179" t="s">
         <v>187</v>
@@ -8285,7 +8285,7 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180">
-        <v>1704708000</v>
+        <v>1704697200</v>
       </c>
       <c r="B180" t="s">
         <v>188</v>
@@ -8317,7 +8317,7 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181">
-        <v>1704711600</v>
+        <v>1704700800</v>
       </c>
       <c r="B181" t="s">
         <v>189</v>
@@ -8349,7 +8349,7 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182">
-        <v>1704715200</v>
+        <v>1704704400</v>
       </c>
       <c r="B182" t="s">
         <v>190</v>
@@ -8381,7 +8381,7 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183">
-        <v>1704718800</v>
+        <v>1704708000</v>
       </c>
       <c r="B183" t="s">
         <v>191</v>
@@ -8413,7 +8413,7 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184">
-        <v>1704718800</v>
+        <v>1704708000</v>
       </c>
       <c r="B184" t="s">
         <v>191</v>
@@ -8445,7 +8445,7 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185">
-        <v>1704722400</v>
+        <v>1704711600</v>
       </c>
       <c r="B185" t="s">
         <v>192</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186">
-        <v>1704722400</v>
+        <v>1704711600</v>
       </c>
       <c r="B186" t="s">
         <v>192</v>
@@ -8509,7 +8509,7 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187">
-        <v>1704726000</v>
+        <v>1704715200</v>
       </c>
       <c r="B187" t="s">
         <v>193</v>
@@ -8541,7 +8541,7 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188">
-        <v>1704726000</v>
+        <v>1704715200</v>
       </c>
       <c r="B188" t="s">
         <v>193</v>
@@ -8573,7 +8573,7 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189">
-        <v>1704729600</v>
+        <v>1704718800</v>
       </c>
       <c r="B189" t="s">
         <v>194</v>
@@ -8605,7 +8605,7 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190">
-        <v>1704729600</v>
+        <v>1704718800</v>
       </c>
       <c r="B190" t="s">
         <v>194</v>
@@ -8637,7 +8637,7 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191">
-        <v>1704733200</v>
+        <v>1704722400</v>
       </c>
       <c r="B191" t="s">
         <v>195</v>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192">
-        <v>1704733200</v>
+        <v>1704722400</v>
       </c>
       <c r="B192" t="s">
         <v>195</v>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193">
-        <v>1704736800</v>
+        <v>1704726000</v>
       </c>
       <c r="B193" t="s">
         <v>196</v>
@@ -8733,7 +8733,7 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194">
-        <v>1704736800</v>
+        <v>1704726000</v>
       </c>
       <c r="B194" t="s">
         <v>196</v>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195">
-        <v>1704740400</v>
+        <v>1704729600</v>
       </c>
       <c r="B195" t="s">
         <v>197</v>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196">
-        <v>1704740400</v>
+        <v>1704729600</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -8829,7 +8829,7 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197">
-        <v>1704744000</v>
+        <v>1704733200</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -8861,7 +8861,7 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198">
-        <v>1704744000</v>
+        <v>1704733200</v>
       </c>
       <c r="B198" t="s">
         <v>198</v>
@@ -8893,7 +8893,7 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199">
-        <v>1704747600</v>
+        <v>1704736800</v>
       </c>
       <c r="B199" t="s">
         <v>199</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200">
-        <v>1704747600</v>
+        <v>1704736800</v>
       </c>
       <c r="B200" t="s">
         <v>199</v>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201">
-        <v>1704751200</v>
+        <v>1704740400</v>
       </c>
       <c r="B201" t="s">
         <v>200</v>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202">
-        <v>1704751200</v>
+        <v>1704740400</v>
       </c>
       <c r="B202" t="s">
         <v>200</v>
@@ -9021,7 +9021,7 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203">
-        <v>1704754800</v>
+        <v>1704744000</v>
       </c>
       <c r="B203" t="s">
         <v>201</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204">
-        <v>1704754800</v>
+        <v>1704744000</v>
       </c>
       <c r="B204" t="s">
         <v>201</v>
@@ -9085,7 +9085,7 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205">
-        <v>1704758400</v>
+        <v>1704747600</v>
       </c>
       <c r="B205" t="s">
         <v>202</v>
@@ -9117,7 +9117,7 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206">
-        <v>1704758400</v>
+        <v>1704747600</v>
       </c>
       <c r="B206" t="s">
         <v>202</v>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207">
-        <v>1704762000</v>
+        <v>1704751200</v>
       </c>
       <c r="B207" t="s">
         <v>203</v>
@@ -9181,7 +9181,7 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208">
-        <v>1704762000</v>
+        <v>1704751200</v>
       </c>
       <c r="B208" t="s">
         <v>203</v>
@@ -9213,7 +9213,7 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209">
-        <v>1704765600</v>
+        <v>1704754800</v>
       </c>
       <c r="B209" t="s">
         <v>204</v>
@@ -9245,7 +9245,7 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210">
-        <v>1704765600</v>
+        <v>1704754800</v>
       </c>
       <c r="B210" t="s">
         <v>204</v>
@@ -9277,7 +9277,7 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211">
-        <v>1704769200</v>
+        <v>1704758400</v>
       </c>
       <c r="B211" t="s">
         <v>205</v>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212">
-        <v>1704769200</v>
+        <v>1704758400</v>
       </c>
       <c r="B212" t="s">
         <v>205</v>
@@ -9341,7 +9341,7 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213">
-        <v>1704772800</v>
+        <v>1704762000</v>
       </c>
       <c r="B213" t="s">
         <v>206</v>
@@ -9373,7 +9373,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214">
-        <v>1704772800</v>
+        <v>1704762000</v>
       </c>
       <c r="B214" t="s">
         <v>206</v>
@@ -9405,7 +9405,7 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215">
-        <v>1704776400</v>
+        <v>1704765600</v>
       </c>
       <c r="B215" t="s">
         <v>207</v>
@@ -9437,7 +9437,7 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216">
-        <v>1704776400</v>
+        <v>1704765600</v>
       </c>
       <c r="B216" t="s">
         <v>207</v>
@@ -9469,7 +9469,7 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217">
-        <v>1704780000</v>
+        <v>1704769200</v>
       </c>
       <c r="B217" t="s">
         <v>208</v>
@@ -9501,7 +9501,7 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218">
-        <v>1704780000</v>
+        <v>1704769200</v>
       </c>
       <c r="B218" t="s">
         <v>208</v>
@@ -9533,7 +9533,7 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219">
-        <v>1704783600</v>
+        <v>1704772800</v>
       </c>
       <c r="B219" t="s">
         <v>209</v>
@@ -9565,7 +9565,7 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220">
-        <v>1704783600</v>
+        <v>1704772800</v>
       </c>
       <c r="B220" t="s">
         <v>209</v>
@@ -9597,7 +9597,7 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221">
-        <v>1704787200</v>
+        <v>1704776400</v>
       </c>
       <c r="B221" t="s">
         <v>210</v>
@@ -9629,7 +9629,7 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222">
-        <v>1704787200</v>
+        <v>1704776400</v>
       </c>
       <c r="B222" t="s">
         <v>210</v>
@@ -9661,7 +9661,7 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223">
-        <v>1704790800</v>
+        <v>1704780000</v>
       </c>
       <c r="B223" t="s">
         <v>211</v>
@@ -9693,7 +9693,7 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224">
-        <v>1704790800</v>
+        <v>1704780000</v>
       </c>
       <c r="B224" t="s">
         <v>211</v>
@@ -9725,7 +9725,7 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225">
-        <v>1704794400</v>
+        <v>1704783600</v>
       </c>
       <c r="B225" t="s">
         <v>212</v>
@@ -9757,7 +9757,7 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226">
-        <v>1704794400</v>
+        <v>1704783600</v>
       </c>
       <c r="B226" t="s">
         <v>212</v>
@@ -9789,7 +9789,7 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227">
-        <v>1704798000</v>
+        <v>1704787200</v>
       </c>
       <c r="B227" t="s">
         <v>213</v>
@@ -9821,7 +9821,7 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228">
-        <v>1704798000</v>
+        <v>1704787200</v>
       </c>
       <c r="B228" t="s">
         <v>213</v>
@@ -9853,7 +9853,7 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229">
-        <v>1704801600</v>
+        <v>1704790800</v>
       </c>
       <c r="B229" t="s">
         <v>214</v>
@@ -9885,7 +9885,7 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230">
-        <v>1704805200</v>
+        <v>1704794400</v>
       </c>
       <c r="B230" t="s">
         <v>215</v>
@@ -9917,7 +9917,7 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231">
-        <v>1704808800</v>
+        <v>1704798000</v>
       </c>
       <c r="B231" t="s">
         <v>216</v>
@@ -9949,7 +9949,7 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232">
-        <v>1704812400</v>
+        <v>1704801600</v>
       </c>
       <c r="B232" t="s">
         <v>217</v>
@@ -9981,7 +9981,7 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233">
-        <v>1704816000</v>
+        <v>1704805200</v>
       </c>
       <c r="B233" t="s">
         <v>218</v>
@@ -10013,7 +10013,7 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234">
-        <v>1704819600</v>
+        <v>1704808800</v>
       </c>
       <c r="B234" t="s">
         <v>219</v>
@@ -10045,7 +10045,7 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235">
-        <v>1704823200</v>
+        <v>1704812400</v>
       </c>
       <c r="B235" t="s">
         <v>220</v>
@@ -10077,7 +10077,7 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236">
-        <v>1704826800</v>
+        <v>1704816000</v>
       </c>
       <c r="B236" t="s">
         <v>221</v>
@@ -10109,7 +10109,7 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237">
-        <v>1704830400</v>
+        <v>1704819600</v>
       </c>
       <c r="B237" t="s">
         <v>222</v>
@@ -10141,7 +10141,7 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238">
-        <v>1704834000</v>
+        <v>1704823200</v>
       </c>
       <c r="B238" t="s">
         <v>223</v>
@@ -10173,7 +10173,7 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239">
-        <v>1704837600</v>
+        <v>1704826800</v>
       </c>
       <c r="B239" t="s">
         <v>224</v>
@@ -10205,7 +10205,7 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240">
-        <v>1704841200</v>
+        <v>1704830400</v>
       </c>
       <c r="B240" t="s">
         <v>225</v>
@@ -10237,7 +10237,7 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241">
-        <v>1704844800</v>
+        <v>1704834000</v>
       </c>
       <c r="B241" t="s">
         <v>226</v>
@@ -10269,7 +10269,7 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242">
-        <v>1704848400</v>
+        <v>1704837600</v>
       </c>
       <c r="B242" t="s">
         <v>227</v>
@@ -10301,7 +10301,7 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243">
-        <v>1704852000</v>
+        <v>1704841200</v>
       </c>
       <c r="B243" t="s">
         <v>228</v>
@@ -10333,7 +10333,7 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244">
-        <v>1704855600</v>
+        <v>1704844800</v>
       </c>
       <c r="B244" t="s">
         <v>229</v>
@@ -10365,7 +10365,7 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245">
-        <v>1704859200</v>
+        <v>1704848400</v>
       </c>
       <c r="B245" t="s">
         <v>230</v>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246">
-        <v>1704862800</v>
+        <v>1704852000</v>
       </c>
       <c r="B246" t="s">
         <v>231</v>
@@ -10429,7 +10429,7 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247">
-        <v>1704866400</v>
+        <v>1704855600</v>
       </c>
       <c r="B247" t="s">
         <v>232</v>
@@ -10461,7 +10461,7 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248">
-        <v>1704870000</v>
+        <v>1704859200</v>
       </c>
       <c r="B248" t="s">
         <v>233</v>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249">
-        <v>1704888000</v>
+        <v>1704877200</v>
       </c>
       <c r="B249" t="s">
         <v>234</v>
@@ -10525,7 +10525,7 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250">
-        <v>1704891600</v>
+        <v>1704880800</v>
       </c>
       <c r="B250" t="s">
         <v>235</v>
@@ -10557,7 +10557,7 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251">
-        <v>1704895200</v>
+        <v>1704884400</v>
       </c>
       <c r="B251" t="s">
         <v>236</v>
@@ -10589,7 +10589,7 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252">
-        <v>1704898800</v>
+        <v>1704888000</v>
       </c>
       <c r="B252" t="s">
         <v>237</v>
@@ -10621,7 +10621,7 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253">
-        <v>1704902400</v>
+        <v>1704891600</v>
       </c>
       <c r="B253" t="s">
         <v>238</v>
@@ -10653,7 +10653,7 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254">
-        <v>1704906000</v>
+        <v>1704895200</v>
       </c>
       <c r="B254" t="s">
         <v>239</v>
@@ -10685,7 +10685,7 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255">
-        <v>1704909600</v>
+        <v>1704898800</v>
       </c>
       <c r="B255" t="s">
         <v>240</v>
@@ -10717,7 +10717,7 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256">
-        <v>1704913200</v>
+        <v>1704902400</v>
       </c>
       <c r="B256" t="s">
         <v>241</v>
@@ -10749,7 +10749,7 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257">
-        <v>1704916800</v>
+        <v>1704906000</v>
       </c>
       <c r="B257" t="s">
         <v>242</v>
@@ -10781,7 +10781,7 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258">
-        <v>1704920400</v>
+        <v>1704909600</v>
       </c>
       <c r="B258" t="s">
         <v>243</v>
@@ -10813,7 +10813,7 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259">
-        <v>1704924000</v>
+        <v>1704913200</v>
       </c>
       <c r="B259" t="s">
         <v>244</v>
@@ -10845,7 +10845,7 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260">
-        <v>1704927600</v>
+        <v>1704916800</v>
       </c>
       <c r="B260" t="s">
         <v>245</v>
@@ -10877,7 +10877,7 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261">
-        <v>1704931200</v>
+        <v>1704920400</v>
       </c>
       <c r="B261" t="s">
         <v>246</v>
@@ -10909,7 +10909,7 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262">
-        <v>1704934800</v>
+        <v>1704924000</v>
       </c>
       <c r="B262" t="s">
         <v>247</v>
@@ -10941,7 +10941,7 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263">
-        <v>1704938400</v>
+        <v>1704927600</v>
       </c>
       <c r="B263" t="s">
         <v>248</v>
@@ -10973,7 +10973,7 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264">
-        <v>1704942000</v>
+        <v>1704931200</v>
       </c>
       <c r="B264" t="s">
         <v>249</v>
@@ -11005,7 +11005,7 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265">
-        <v>1704945600</v>
+        <v>1704934800</v>
       </c>
       <c r="B265" t="s">
         <v>250</v>
@@ -11037,7 +11037,7 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266">
-        <v>1704949200</v>
+        <v>1704938400</v>
       </c>
       <c r="B266" t="s">
         <v>251</v>
@@ -11069,7 +11069,7 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267">
-        <v>1704952800</v>
+        <v>1704942000</v>
       </c>
       <c r="B267" t="s">
         <v>252</v>
@@ -11101,7 +11101,7 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268">
-        <v>1704956400</v>
+        <v>1704945600</v>
       </c>
       <c r="B268" t="s">
         <v>253</v>
@@ -11133,7 +11133,7 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269">
-        <v>1704960000</v>
+        <v>1704949200</v>
       </c>
       <c r="B269" t="s">
         <v>254</v>
@@ -11165,7 +11165,7 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270">
-        <v>1704963600</v>
+        <v>1704952800</v>
       </c>
       <c r="B270" t="s">
         <v>255</v>
@@ -11197,7 +11197,7 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271">
-        <v>1704967200</v>
+        <v>1704956400</v>
       </c>
       <c r="B271" t="s">
         <v>256</v>
@@ -11229,7 +11229,7 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272">
-        <v>1704970800</v>
+        <v>1704960000</v>
       </c>
       <c r="B272" t="s">
         <v>257</v>
@@ -11261,7 +11261,7 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273">
-        <v>1704974400</v>
+        <v>1704963600</v>
       </c>
       <c r="B273" t="s">
         <v>258</v>
@@ -11293,7 +11293,7 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274">
-        <v>1704978000</v>
+        <v>1704967200</v>
       </c>
       <c r="B274" t="s">
         <v>259</v>
@@ -11325,7 +11325,7 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275">
-        <v>1704981600</v>
+        <v>1704970800</v>
       </c>
       <c r="B275" t="s">
         <v>260</v>
@@ -11357,7 +11357,7 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276">
-        <v>1704985200</v>
+        <v>1704974400</v>
       </c>
       <c r="B276" t="s">
         <v>261</v>
@@ -11389,7 +11389,7 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277">
-        <v>1704988800</v>
+        <v>1704978000</v>
       </c>
       <c r="B277" t="s">
         <v>262</v>
@@ -11421,7 +11421,7 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278">
-        <v>1704992400</v>
+        <v>1704981600</v>
       </c>
       <c r="B278" t="s">
         <v>263</v>
@@ -11453,7 +11453,7 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279">
-        <v>1704996000</v>
+        <v>1704985200</v>
       </c>
       <c r="B279" t="s">
         <v>264</v>
@@ -11485,7 +11485,7 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280">
-        <v>1704999600</v>
+        <v>1704988800</v>
       </c>
       <c r="B280" t="s">
         <v>265</v>
@@ -11517,7 +11517,7 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281">
-        <v>1705003200</v>
+        <v>1704992400</v>
       </c>
       <c r="B281" t="s">
         <v>266</v>
@@ -11549,7 +11549,7 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282">
-        <v>1705006800</v>
+        <v>1704996000</v>
       </c>
       <c r="B282" t="s">
         <v>267</v>
@@ -11581,7 +11581,7 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283">
-        <v>1705010400</v>
+        <v>1704999600</v>
       </c>
       <c r="B283" t="s">
         <v>268</v>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284">
-        <v>1705014000</v>
+        <v>1705003200</v>
       </c>
       <c r="B284" t="s">
         <v>269</v>
@@ -11645,7 +11645,7 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285">
-        <v>1705017600</v>
+        <v>1705006800</v>
       </c>
       <c r="B285" t="s">
         <v>270</v>
@@ -11677,7 +11677,7 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286">
-        <v>1705021200</v>
+        <v>1705010400</v>
       </c>
       <c r="B286" t="s">
         <v>271</v>
@@ -11709,7 +11709,7 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287">
-        <v>1705024800</v>
+        <v>1705014000</v>
       </c>
       <c r="B287" t="s">
         <v>272</v>
@@ -11741,7 +11741,7 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288">
-        <v>1705028400</v>
+        <v>1705017600</v>
       </c>
       <c r="B288" t="s">
         <v>273</v>
@@ -11773,7 +11773,7 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289">
-        <v>1705032000</v>
+        <v>1705021200</v>
       </c>
       <c r="B289" t="s">
         <v>274</v>
@@ -11805,7 +11805,7 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290">
-        <v>1705035600</v>
+        <v>1705024800</v>
       </c>
       <c r="B290" t="s">
         <v>275</v>
@@ -11837,7 +11837,7 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291">
-        <v>1705039200</v>
+        <v>1705028400</v>
       </c>
       <c r="B291" t="s">
         <v>276</v>
@@ -11869,7 +11869,7 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292">
-        <v>1705042800</v>
+        <v>1705032000</v>
       </c>
       <c r="B292" t="s">
         <v>277</v>
@@ -11901,7 +11901,7 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293">
-        <v>1705046400</v>
+        <v>1705035600</v>
       </c>
       <c r="B293" t="s">
         <v>278</v>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294">
-        <v>1705050000</v>
+        <v>1705039200</v>
       </c>
       <c r="B294" t="s">
         <v>279</v>
@@ -11965,7 +11965,7 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295">
-        <v>1705053600</v>
+        <v>1705042800</v>
       </c>
       <c r="B295" t="s">
         <v>280</v>
@@ -11997,7 +11997,7 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296">
-        <v>1705057200</v>
+        <v>1705046400</v>
       </c>
       <c r="B296" t="s">
         <v>281</v>
@@ -12029,7 +12029,7 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297">
-        <v>1705060800</v>
+        <v>1705050000</v>
       </c>
       <c r="B297" t="s">
         <v>282</v>
@@ -12061,7 +12061,7 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298">
-        <v>1705064400</v>
+        <v>1705053600</v>
       </c>
       <c r="B298" t="s">
         <v>283</v>
@@ -12093,7 +12093,7 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299">
-        <v>1705068000</v>
+        <v>1705057200</v>
       </c>
       <c r="B299" t="s">
         <v>284</v>
@@ -12125,7 +12125,7 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300">
-        <v>1705071600</v>
+        <v>1705060800</v>
       </c>
       <c r="B300" t="s">
         <v>285</v>
@@ -12157,7 +12157,7 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301">
-        <v>1705075200</v>
+        <v>1705064400</v>
       </c>
       <c r="B301" t="s">
         <v>286</v>
@@ -12189,7 +12189,7 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302">
-        <v>1705078800</v>
+        <v>1705068000</v>
       </c>
       <c r="B302" t="s">
         <v>287</v>
@@ -12221,7 +12221,7 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303">
-        <v>1705082400</v>
+        <v>1705071600</v>
       </c>
       <c r="B303" t="s">
         <v>288</v>
@@ -12253,7 +12253,7 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304">
-        <v>1705086000</v>
+        <v>1705075200</v>
       </c>
       <c r="B304" t="s">
         <v>289</v>
@@ -12285,7 +12285,7 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305">
-        <v>1705089600</v>
+        <v>1705078800</v>
       </c>
       <c r="B305" t="s">
         <v>290</v>
@@ -12317,7 +12317,7 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306">
-        <v>1705093200</v>
+        <v>1705082400</v>
       </c>
       <c r="B306" t="s">
         <v>291</v>
@@ -12349,7 +12349,7 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307">
-        <v>1705096800</v>
+        <v>1705086000</v>
       </c>
       <c r="B307" t="s">
         <v>292</v>
@@ -12381,7 +12381,7 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308">
-        <v>1705100400</v>
+        <v>1705089600</v>
       </c>
       <c r="B308" t="s">
         <v>293</v>
@@ -12413,7 +12413,7 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309">
-        <v>1705104000</v>
+        <v>1705093200</v>
       </c>
       <c r="B309" t="s">
         <v>294</v>
@@ -12445,7 +12445,7 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310">
-        <v>1705107600</v>
+        <v>1705096800</v>
       </c>
       <c r="B310" t="s">
         <v>295</v>
@@ -12477,7 +12477,7 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311">
-        <v>1705111200</v>
+        <v>1705100400</v>
       </c>
       <c r="B311" t="s">
         <v>296</v>
@@ -12509,7 +12509,7 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312">
-        <v>1705114800</v>
+        <v>1705104000</v>
       </c>
       <c r="B312" t="s">
         <v>297</v>
@@ -12541,7 +12541,7 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313">
-        <v>1705118400</v>
+        <v>1705107600</v>
       </c>
       <c r="B313" t="s">
         <v>298</v>
@@ -12573,7 +12573,7 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314">
-        <v>1705122000</v>
+        <v>1705111200</v>
       </c>
       <c r="B314" t="s">
         <v>299</v>
@@ -12605,7 +12605,7 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315">
-        <v>1705125600</v>
+        <v>1705114800</v>
       </c>
       <c r="B315" t="s">
         <v>300</v>
@@ -12637,7 +12637,7 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316">
-        <v>1705129200</v>
+        <v>1705118400</v>
       </c>
       <c r="B316" t="s">
         <v>301</v>
@@ -12669,7 +12669,7 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317">
-        <v>1705132800</v>
+        <v>1705122000</v>
       </c>
       <c r="B317" t="s">
         <v>302</v>
@@ -12701,7 +12701,7 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318">
-        <v>1705136400</v>
+        <v>1705125600</v>
       </c>
       <c r="B318" t="s">
         <v>303</v>
@@ -12733,7 +12733,7 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319">
-        <v>1705140000</v>
+        <v>1705129200</v>
       </c>
       <c r="B319" t="s">
         <v>304</v>
@@ -12765,7 +12765,7 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320">
-        <v>1705143600</v>
+        <v>1705132800</v>
       </c>
       <c r="B320" t="s">
         <v>305</v>
@@ -12797,7 +12797,7 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321">
-        <v>1705147200</v>
+        <v>1705136400</v>
       </c>
       <c r="B321" t="s">
         <v>306</v>
@@ -12829,7 +12829,7 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322">
-        <v>1705150800</v>
+        <v>1705140000</v>
       </c>
       <c r="B322" t="s">
         <v>307</v>
@@ -12861,7 +12861,7 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323">
-        <v>1705154400</v>
+        <v>1705143600</v>
       </c>
       <c r="B323" t="s">
         <v>308</v>
@@ -12893,7 +12893,7 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324">
-        <v>1705158000</v>
+        <v>1705147200</v>
       </c>
       <c r="B324" t="s">
         <v>309</v>
@@ -12925,7 +12925,7 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325">
-        <v>1705161600</v>
+        <v>1705150800</v>
       </c>
       <c r="B325" t="s">
         <v>310</v>
@@ -12957,7 +12957,7 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326">
-        <v>1705165200</v>
+        <v>1705154400</v>
       </c>
       <c r="B326" t="s">
         <v>311</v>
@@ -12989,7 +12989,7 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327">
-        <v>1705168800</v>
+        <v>1705158000</v>
       </c>
       <c r="B327" t="s">
         <v>312</v>
@@ -13021,7 +13021,7 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328">
-        <v>1705172400</v>
+        <v>1705161600</v>
       </c>
       <c r="B328" t="s">
         <v>313</v>
@@ -13053,7 +13053,7 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329">
-        <v>1705176000</v>
+        <v>1705165200</v>
       </c>
       <c r="B329" t="s">
         <v>314</v>
@@ -13085,7 +13085,7 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330">
-        <v>1705179600</v>
+        <v>1705168800</v>
       </c>
       <c r="B330" t="s">
         <v>315</v>
@@ -13117,7 +13117,7 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331">
-        <v>1705183200</v>
+        <v>1705172400</v>
       </c>
       <c r="B331" t="s">
         <v>316</v>
@@ -13149,7 +13149,7 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332">
-        <v>1705186800</v>
+        <v>1705176000</v>
       </c>
       <c r="B332" t="s">
         <v>317</v>
@@ -13181,7 +13181,7 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333">
-        <v>1705190400</v>
+        <v>1705179600</v>
       </c>
       <c r="B333" t="s">
         <v>318</v>
@@ -13213,7 +13213,7 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334">
-        <v>1705194000</v>
+        <v>1705183200</v>
       </c>
       <c r="B334" t="s">
         <v>319</v>
@@ -13245,7 +13245,7 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335">
-        <v>1705197600</v>
+        <v>1705186800</v>
       </c>
       <c r="B335" t="s">
         <v>320</v>
@@ -13277,7 +13277,7 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336">
-        <v>1705201200</v>
+        <v>1705190400</v>
       </c>
       <c r="B336" t="s">
         <v>321</v>
@@ -13309,7 +13309,7 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337">
-        <v>1705204800</v>
+        <v>1705194000</v>
       </c>
       <c r="B337" t="s">
         <v>322</v>
@@ -13341,7 +13341,7 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338">
-        <v>1705208400</v>
+        <v>1705197600</v>
       </c>
       <c r="B338" t="s">
         <v>323</v>
@@ -13373,7 +13373,7 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339">
-        <v>1705212000</v>
+        <v>1705201200</v>
       </c>
       <c r="B339" t="s">
         <v>324</v>
@@ -13405,7 +13405,7 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340">
-        <v>1705215600</v>
+        <v>1705204800</v>
       </c>
       <c r="B340" t="s">
         <v>325</v>
@@ -13437,7 +13437,7 @@
     </row>
     <row r="341" spans="1:10">
       <c r="A341">
-        <v>1705219200</v>
+        <v>1705208400</v>
       </c>
       <c r="B341" t="s">
         <v>326</v>
@@ -13469,7 +13469,7 @@
     </row>
     <row r="342" spans="1:10">
       <c r="A342">
-        <v>1705222800</v>
+        <v>1705212000</v>
       </c>
       <c r="B342" t="s">
         <v>327</v>
@@ -13501,7 +13501,7 @@
     </row>
     <row r="343" spans="1:10">
       <c r="A343">
-        <v>1705226400</v>
+        <v>1705215600</v>
       </c>
       <c r="B343" t="s">
         <v>328</v>
@@ -13533,7 +13533,7 @@
     </row>
     <row r="344" spans="1:10">
       <c r="A344">
-        <v>1705230000</v>
+        <v>1705219200</v>
       </c>
       <c r="B344" t="s">
         <v>329</v>
@@ -13565,7 +13565,7 @@
     </row>
     <row r="345" spans="1:10">
       <c r="A345">
-        <v>1705233600</v>
+        <v>1705222800</v>
       </c>
       <c r="B345" t="s">
         <v>330</v>
@@ -13597,7 +13597,7 @@
     </row>
     <row r="346" spans="1:10">
       <c r="A346">
-        <v>1705237200</v>
+        <v>1705226400</v>
       </c>
       <c r="B346" t="s">
         <v>331</v>
@@ -13629,7 +13629,7 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347">
-        <v>1705240800</v>
+        <v>1705230000</v>
       </c>
       <c r="B347" t="s">
         <v>332</v>
@@ -13661,7 +13661,7 @@
     </row>
     <row r="348" spans="1:10">
       <c r="A348">
-        <v>1705244400</v>
+        <v>1705233600</v>
       </c>
       <c r="B348" t="s">
         <v>333</v>
@@ -13693,7 +13693,7 @@
     </row>
     <row r="349" spans="1:10">
       <c r="A349">
-        <v>1705248000</v>
+        <v>1705237200</v>
       </c>
       <c r="B349" t="s">
         <v>334</v>
@@ -13725,7 +13725,7 @@
     </row>
     <row r="350" spans="1:10">
       <c r="A350">
-        <v>1705251600</v>
+        <v>1705240800</v>
       </c>
       <c r="B350" t="s">
         <v>335</v>
@@ -13757,7 +13757,7 @@
     </row>
     <row r="351" spans="1:10">
       <c r="A351">
-        <v>1705255200</v>
+        <v>1705244400</v>
       </c>
       <c r="B351" t="s">
         <v>336</v>
@@ -13789,7 +13789,7 @@
     </row>
     <row r="352" spans="1:10">
       <c r="A352">
-        <v>1705258800</v>
+        <v>1705248000</v>
       </c>
       <c r="B352" t="s">
         <v>337</v>
@@ -13821,7 +13821,7 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353">
-        <v>1705262400</v>
+        <v>1705251600</v>
       </c>
       <c r="B353" t="s">
         <v>338</v>
@@ -13853,7 +13853,7 @@
     </row>
     <row r="354" spans="1:10">
       <c r="A354">
-        <v>1705266000</v>
+        <v>1705255200</v>
       </c>
       <c r="B354" t="s">
         <v>339</v>
@@ -13885,7 +13885,7 @@
     </row>
     <row r="355" spans="1:10">
       <c r="A355">
-        <v>1705269600</v>
+        <v>1705258800</v>
       </c>
       <c r="B355" t="s">
         <v>340</v>
@@ -13917,7 +13917,7 @@
     </row>
     <row r="356" spans="1:10">
       <c r="A356">
-        <v>1705273200</v>
+        <v>1705262400</v>
       </c>
       <c r="B356" t="s">
         <v>341</v>
@@ -13949,7 +13949,7 @@
     </row>
     <row r="357" spans="1:10">
       <c r="A357">
-        <v>1705276800</v>
+        <v>1705266000</v>
       </c>
       <c r="B357" t="s">
         <v>342</v>
@@ -13981,7 +13981,7 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358">
-        <v>1705280400</v>
+        <v>1705269600</v>
       </c>
       <c r="B358" t="s">
         <v>343</v>
@@ -14013,7 +14013,7 @@
     </row>
     <row r="359" spans="1:10">
       <c r="A359">
-        <v>1705284000</v>
+        <v>1705273200</v>
       </c>
       <c r="B359" t="s">
         <v>344</v>
@@ -14045,7 +14045,7 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360">
-        <v>1705287600</v>
+        <v>1705276800</v>
       </c>
       <c r="B360" t="s">
         <v>345</v>
@@ -14077,7 +14077,7 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361">
-        <v>1705291200</v>
+        <v>1705280400</v>
       </c>
       <c r="B361" t="s">
         <v>346</v>
@@ -14109,7 +14109,7 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362">
-        <v>1705294800</v>
+        <v>1705284000</v>
       </c>
       <c r="B362" t="s">
         <v>347</v>
@@ -14141,7 +14141,7 @@
     </row>
     <row r="363" spans="1:10">
       <c r="A363">
-        <v>1705298400</v>
+        <v>1705287600</v>
       </c>
       <c r="B363" t="s">
         <v>348</v>
@@ -14173,7 +14173,7 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364">
-        <v>1705302000</v>
+        <v>1705291200</v>
       </c>
       <c r="B364" t="s">
         <v>349</v>
@@ -14205,7 +14205,7 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365">
-        <v>1705305600</v>
+        <v>1705294800</v>
       </c>
       <c r="B365" t="s">
         <v>350</v>
@@ -14237,7 +14237,7 @@
     </row>
     <row r="366" spans="1:10">
       <c r="A366">
-        <v>1705309200</v>
+        <v>1705298400</v>
       </c>
       <c r="B366" t="s">
         <v>351</v>
@@ -14269,7 +14269,7 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367">
-        <v>1705312800</v>
+        <v>1705302000</v>
       </c>
       <c r="B367" t="s">
         <v>352</v>
@@ -14301,7 +14301,7 @@
     </row>
     <row r="368" spans="1:10">
       <c r="A368">
-        <v>1705316400</v>
+        <v>1705305600</v>
       </c>
       <c r="B368" t="s">
         <v>353</v>
@@ -14333,7 +14333,7 @@
     </row>
     <row r="369" spans="1:10">
       <c r="A369">
-        <v>1705320000</v>
+        <v>1705309200</v>
       </c>
       <c r="B369" t="s">
         <v>354</v>
@@ -14365,7 +14365,7 @@
     </row>
     <row r="370" spans="1:10">
       <c r="A370">
-        <v>1705323600</v>
+        <v>1705312800</v>
       </c>
       <c r="B370" t="s">
         <v>355</v>
@@ -14397,7 +14397,7 @@
     </row>
     <row r="371" spans="1:10">
       <c r="A371">
-        <v>1705327200</v>
+        <v>1705316400</v>
       </c>
       <c r="B371" t="s">
         <v>356</v>
@@ -14429,7 +14429,7 @@
     </row>
     <row r="372" spans="1:10">
       <c r="A372">
-        <v>1705330800</v>
+        <v>1705320000</v>
       </c>
       <c r="B372" t="s">
         <v>357</v>
@@ -14461,7 +14461,7 @@
     </row>
     <row r="373" spans="1:10">
       <c r="A373">
-        <v>1705334400</v>
+        <v>1705323600</v>
       </c>
       <c r="B373" t="s">
         <v>358</v>
@@ -14493,7 +14493,7 @@
     </row>
     <row r="374" spans="1:10">
       <c r="A374">
-        <v>1705338000</v>
+        <v>1705327200</v>
       </c>
       <c r="B374" t="s">
         <v>359</v>
@@ -14525,7 +14525,7 @@
     </row>
     <row r="375" spans="1:10">
       <c r="A375">
-        <v>1705341600</v>
+        <v>1705330800</v>
       </c>
       <c r="B375" t="s">
         <v>360</v>
@@ -14557,7 +14557,7 @@
     </row>
     <row r="376" spans="1:10">
       <c r="A376">
-        <v>1705345200</v>
+        <v>1705334400</v>
       </c>
       <c r="B376" t="s">
         <v>361</v>
@@ -14589,7 +14589,7 @@
     </row>
     <row r="377" spans="1:10">
       <c r="A377">
-        <v>1705348800</v>
+        <v>1705338000</v>
       </c>
       <c r="B377" t="s">
         <v>362</v>
@@ -14621,7 +14621,7 @@
     </row>
     <row r="378" spans="1:10">
       <c r="A378">
-        <v>1705352400</v>
+        <v>1705341600</v>
       </c>
       <c r="B378" t="s">
         <v>363</v>
@@ -14653,7 +14653,7 @@
     </row>
     <row r="379" spans="1:10">
       <c r="A379">
-        <v>1705356000</v>
+        <v>1705345200</v>
       </c>
       <c r="B379" t="s">
         <v>364</v>
@@ -14685,7 +14685,7 @@
     </row>
     <row r="380" spans="1:10">
       <c r="A380">
-        <v>1705359600</v>
+        <v>1705348800</v>
       </c>
       <c r="B380" t="s">
         <v>365</v>
@@ -14717,7 +14717,7 @@
     </row>
     <row r="381" spans="1:10">
       <c r="A381">
-        <v>1705363200</v>
+        <v>1705352400</v>
       </c>
       <c r="B381" t="s">
         <v>366</v>
@@ -14749,7 +14749,7 @@
     </row>
     <row r="382" spans="1:10">
       <c r="A382">
-        <v>1705366800</v>
+        <v>1705356000</v>
       </c>
       <c r="B382" t="s">
         <v>367</v>
@@ -14781,7 +14781,7 @@
     </row>
     <row r="383" spans="1:10">
       <c r="A383">
-        <v>1705370400</v>
+        <v>1705359600</v>
       </c>
       <c r="B383" t="s">
         <v>368</v>
@@ -14813,7 +14813,7 @@
     </row>
     <row r="384" spans="1:10">
       <c r="A384">
-        <v>1705374000</v>
+        <v>1705363200</v>
       </c>
       <c r="B384" t="s">
         <v>369</v>
@@ -14845,7 +14845,7 @@
     </row>
     <row r="385" spans="1:10">
       <c r="A385">
-        <v>1705377600</v>
+        <v>1705366800</v>
       </c>
       <c r="B385" t="s">
         <v>370</v>
@@ -14877,7 +14877,7 @@
     </row>
     <row r="386" spans="1:10">
       <c r="A386">
-        <v>1705381200</v>
+        <v>1705370400</v>
       </c>
       <c r="B386" t="s">
         <v>371</v>
@@ -14909,7 +14909,7 @@
     </row>
     <row r="387" spans="1:10">
       <c r="A387">
-        <v>1705384800</v>
+        <v>1705374000</v>
       </c>
       <c r="B387" t="s">
         <v>372</v>
@@ -14941,7 +14941,7 @@
     </row>
     <row r="388" spans="1:10">
       <c r="A388">
-        <v>1705388400</v>
+        <v>1705377600</v>
       </c>
       <c r="B388" t="s">
         <v>373</v>
@@ -14973,7 +14973,7 @@
     </row>
     <row r="389" spans="1:10">
       <c r="A389">
-        <v>1705392000</v>
+        <v>1705381200</v>
       </c>
       <c r="B389" t="s">
         <v>374</v>
@@ -15005,7 +15005,7 @@
     </row>
     <row r="390" spans="1:10">
       <c r="A390">
-        <v>1705395600</v>
+        <v>1705384800</v>
       </c>
       <c r="B390" t="s">
         <v>375</v>
@@ -15037,7 +15037,7 @@
     </row>
     <row r="391" spans="1:10">
       <c r="A391">
-        <v>1705399200</v>
+        <v>1705388400</v>
       </c>
       <c r="B391" t="s">
         <v>376</v>
@@ -15069,7 +15069,7 @@
     </row>
     <row r="392" spans="1:10">
       <c r="A392">
-        <v>1705402800</v>
+        <v>1705392000</v>
       </c>
       <c r="B392" t="s">
         <v>377</v>
@@ -15101,7 +15101,7 @@
     </row>
     <row r="393" spans="1:10">
       <c r="A393">
-        <v>1705406400</v>
+        <v>1705395600</v>
       </c>
       <c r="B393" t="s">
         <v>378</v>
@@ -15133,7 +15133,7 @@
     </row>
     <row r="394" spans="1:10">
       <c r="A394">
-        <v>1705410000</v>
+        <v>1705399200</v>
       </c>
       <c r="B394" t="s">
         <v>379</v>
@@ -15165,7 +15165,7 @@
     </row>
     <row r="395" spans="1:10">
       <c r="A395">
-        <v>1705413600</v>
+        <v>1705402800</v>
       </c>
       <c r="B395" t="s">
         <v>380</v>
@@ -15197,7 +15197,7 @@
     </row>
     <row r="396" spans="1:10">
       <c r="A396">
-        <v>1705417200</v>
+        <v>1705406400</v>
       </c>
       <c r="B396" t="s">
         <v>381</v>
@@ -15229,7 +15229,7 @@
     </row>
     <row r="397" spans="1:10">
       <c r="A397">
-        <v>1705420800</v>
+        <v>1705410000</v>
       </c>
       <c r="B397" t="s">
         <v>382</v>
@@ -15261,7 +15261,7 @@
     </row>
     <row r="398" spans="1:10">
       <c r="A398">
-        <v>1705424400</v>
+        <v>1705413600</v>
       </c>
       <c r="B398" t="s">
         <v>383</v>
@@ -15293,7 +15293,7 @@
     </row>
     <row r="399" spans="1:10">
       <c r="A399">
-        <v>1705428000</v>
+        <v>1705417200</v>
       </c>
       <c r="B399" t="s">
         <v>384</v>
@@ -15325,7 +15325,7 @@
     </row>
     <row r="400" spans="1:10">
       <c r="A400">
-        <v>1705431600</v>
+        <v>1705420800</v>
       </c>
       <c r="B400" t="s">
         <v>385</v>
@@ -15357,7 +15357,7 @@
     </row>
     <row r="401" spans="1:10">
       <c r="A401">
-        <v>1705435200</v>
+        <v>1705424400</v>
       </c>
       <c r="B401" t="s">
         <v>386</v>
@@ -15389,7 +15389,7 @@
     </row>
     <row r="402" spans="1:10">
       <c r="A402">
-        <v>1705438800</v>
+        <v>1705428000</v>
       </c>
       <c r="B402" t="s">
         <v>387</v>
@@ -15421,7 +15421,7 @@
     </row>
     <row r="403" spans="1:10">
       <c r="A403">
-        <v>1705442400</v>
+        <v>1705431600</v>
       </c>
       <c r="B403" t="s">
         <v>388</v>
@@ -15453,7 +15453,7 @@
     </row>
     <row r="404" spans="1:10">
       <c r="A404">
-        <v>1705446000</v>
+        <v>1705435200</v>
       </c>
       <c r="B404" t="s">
         <v>389</v>
@@ -15485,7 +15485,7 @@
     </row>
     <row r="405" spans="1:10">
       <c r="A405">
-        <v>1705449600</v>
+        <v>1705438800</v>
       </c>
       <c r="B405" t="s">
         <v>390</v>
@@ -15517,7 +15517,7 @@
     </row>
     <row r="406" spans="1:10">
       <c r="A406">
-        <v>1705453200</v>
+        <v>1705442400</v>
       </c>
       <c r="B406" t="s">
         <v>391</v>
@@ -15549,7 +15549,7 @@
     </row>
     <row r="407" spans="1:10">
       <c r="A407">
-        <v>1705456800</v>
+        <v>1705446000</v>
       </c>
       <c r="B407" t="s">
         <v>392</v>
@@ -15581,7 +15581,7 @@
     </row>
     <row r="408" spans="1:10">
       <c r="A408">
-        <v>1705460400</v>
+        <v>1705449600</v>
       </c>
       <c r="B408" t="s">
         <v>393</v>
@@ -15613,7 +15613,7 @@
     </row>
     <row r="409" spans="1:10">
       <c r="A409">
-        <v>1705464000</v>
+        <v>1705453200</v>
       </c>
       <c r="B409" t="s">
         <v>394</v>
@@ -15645,7 +15645,7 @@
     </row>
     <row r="410" spans="1:10">
       <c r="A410">
-        <v>1705467600</v>
+        <v>1705456800</v>
       </c>
       <c r="B410" t="s">
         <v>395</v>
@@ -15677,7 +15677,7 @@
     </row>
     <row r="411" spans="1:10">
       <c r="A411">
-        <v>1705471200</v>
+        <v>1705460400</v>
       </c>
       <c r="B411" t="s">
         <v>396</v>
@@ -15709,7 +15709,7 @@
     </row>
     <row r="412" spans="1:10">
       <c r="A412">
-        <v>1705474800</v>
+        <v>1705464000</v>
       </c>
       <c r="B412" t="s">
         <v>397</v>
@@ -15741,7 +15741,7 @@
     </row>
     <row r="413" spans="1:10">
       <c r="A413">
-        <v>1705478400</v>
+        <v>1705467600</v>
       </c>
       <c r="B413" t="s">
         <v>398</v>
@@ -15773,7 +15773,7 @@
     </row>
     <row r="414" spans="1:10">
       <c r="A414">
-        <v>1705482000</v>
+        <v>1705471200</v>
       </c>
       <c r="B414" t="s">
         <v>399</v>
@@ -15805,7 +15805,7 @@
     </row>
     <row r="415" spans="1:10">
       <c r="A415">
-        <v>1705485600</v>
+        <v>1705474800</v>
       </c>
       <c r="B415" t="s">
         <v>400</v>
@@ -15837,7 +15837,7 @@
     </row>
     <row r="416" spans="1:10">
       <c r="A416">
-        <v>1705489200</v>
+        <v>1705478400</v>
       </c>
       <c r="B416" t="s">
         <v>401</v>
@@ -15869,7 +15869,7 @@
     </row>
     <row r="417" spans="1:10">
       <c r="A417">
-        <v>1705492800</v>
+        <v>1705482000</v>
       </c>
       <c r="B417" t="s">
         <v>402</v>
@@ -15901,7 +15901,7 @@
     </row>
     <row r="418" spans="1:10">
       <c r="A418">
-        <v>1705496400</v>
+        <v>1705485600</v>
       </c>
       <c r="B418" t="s">
         <v>403</v>
@@ -15933,7 +15933,7 @@
     </row>
     <row r="419" spans="1:10">
       <c r="A419">
-        <v>1705500000</v>
+        <v>1705489200</v>
       </c>
       <c r="B419" t="s">
         <v>404</v>
@@ -15965,7 +15965,7 @@
     </row>
     <row r="420" spans="1:10">
       <c r="A420">
-        <v>1705503600</v>
+        <v>1705492800</v>
       </c>
       <c r="B420" t="s">
         <v>405</v>
@@ -15997,7 +15997,7 @@
     </row>
     <row r="421" spans="1:10">
       <c r="A421">
-        <v>1705507200</v>
+        <v>1705496400</v>
       </c>
       <c r="B421" t="s">
         <v>406</v>
@@ -16029,7 +16029,7 @@
     </row>
     <row r="422" spans="1:10">
       <c r="A422">
-        <v>1705510800</v>
+        <v>1705500000</v>
       </c>
       <c r="B422" t="s">
         <v>407</v>
@@ -16061,7 +16061,7 @@
     </row>
     <row r="423" spans="1:10">
       <c r="A423">
-        <v>1705514400</v>
+        <v>1705503600</v>
       </c>
       <c r="B423" t="s">
         <v>408</v>
@@ -16093,7 +16093,7 @@
     </row>
     <row r="424" spans="1:10">
       <c r="A424">
-        <v>1705518000</v>
+        <v>1705507200</v>
       </c>
       <c r="B424" t="s">
         <v>409</v>
@@ -16125,7 +16125,7 @@
     </row>
     <row r="425" spans="1:10">
       <c r="A425">
-        <v>1705521600</v>
+        <v>1705510800</v>
       </c>
       <c r="B425" t="s">
         <v>410</v>
@@ -16157,7 +16157,7 @@
     </row>
     <row r="426" spans="1:10">
       <c r="A426">
-        <v>1705525200</v>
+        <v>1705514400</v>
       </c>
       <c r="B426" t="s">
         <v>411</v>
@@ -16189,7 +16189,7 @@
     </row>
     <row r="427" spans="1:10">
       <c r="A427">
-        <v>1705528800</v>
+        <v>1705518000</v>
       </c>
       <c r="B427" t="s">
         <v>412</v>
@@ -16221,7 +16221,7 @@
     </row>
     <row r="428" spans="1:10">
       <c r="A428">
-        <v>1705532400</v>
+        <v>1705521600</v>
       </c>
       <c r="B428" t="s">
         <v>413</v>
@@ -16253,7 +16253,7 @@
     </row>
     <row r="429" spans="1:10">
       <c r="A429">
-        <v>1705536000</v>
+        <v>1705525200</v>
       </c>
       <c r="B429" t="s">
         <v>414</v>
@@ -16285,7 +16285,7 @@
     </row>
     <row r="430" spans="1:10">
       <c r="A430">
-        <v>1705539600</v>
+        <v>1705528800</v>
       </c>
       <c r="B430" t="s">
         <v>415</v>
@@ -16317,7 +16317,7 @@
     </row>
     <row r="431" spans="1:10">
       <c r="A431">
-        <v>1705543200</v>
+        <v>1705532400</v>
       </c>
       <c r="B431" t="s">
         <v>416</v>
@@ -16349,7 +16349,7 @@
     </row>
     <row r="432" spans="1:10">
       <c r="A432">
-        <v>1705546800</v>
+        <v>1705536000</v>
       </c>
       <c r="B432" t="s">
         <v>417</v>
@@ -16381,7 +16381,7 @@
     </row>
     <row r="433" spans="1:10">
       <c r="A433">
-        <v>1705550400</v>
+        <v>1705539600</v>
       </c>
       <c r="B433" t="s">
         <v>418</v>
@@ -16413,7 +16413,7 @@
     </row>
     <row r="434" spans="1:10">
       <c r="A434">
-        <v>1705554000</v>
+        <v>1705543200</v>
       </c>
       <c r="B434" t="s">
         <v>419</v>
@@ -16445,7 +16445,7 @@
     </row>
     <row r="435" spans="1:10">
       <c r="A435">
-        <v>1705557600</v>
+        <v>1705546800</v>
       </c>
       <c r="B435" t="s">
         <v>420</v>
@@ -16477,7 +16477,7 @@
     </row>
     <row r="436" spans="1:10">
       <c r="A436">
-        <v>1705561200</v>
+        <v>1705550400</v>
       </c>
       <c r="B436" t="s">
         <v>421</v>
@@ -16509,7 +16509,7 @@
     </row>
     <row r="437" spans="1:10">
       <c r="A437">
-        <v>1705564800</v>
+        <v>1705554000</v>
       </c>
       <c r="B437" t="s">
         <v>422</v>
@@ -16541,7 +16541,7 @@
     </row>
     <row r="438" spans="1:10">
       <c r="A438">
-        <v>1705568400</v>
+        <v>1705557600</v>
       </c>
       <c r="B438" t="s">
         <v>423</v>
@@ -16573,7 +16573,7 @@
     </row>
     <row r="439" spans="1:10">
       <c r="A439">
-        <v>1705572000</v>
+        <v>1705561200</v>
       </c>
       <c r="B439" t="s">
         <v>424</v>
@@ -16605,7 +16605,7 @@
     </row>
     <row r="440" spans="1:10">
       <c r="A440">
-        <v>1705575600</v>
+        <v>1705564800</v>
       </c>
       <c r="B440" t="s">
         <v>425</v>
@@ -16637,7 +16637,7 @@
     </row>
     <row r="441" spans="1:10">
       <c r="A441">
-        <v>1705579200</v>
+        <v>1705568400</v>
       </c>
       <c r="B441" t="s">
         <v>426</v>
@@ -16669,7 +16669,7 @@
     </row>
     <row r="442" spans="1:10">
       <c r="A442">
-        <v>1705582800</v>
+        <v>1705572000</v>
       </c>
       <c r="B442" t="s">
         <v>427</v>
@@ -16701,7 +16701,7 @@
     </row>
     <row r="443" spans="1:10">
       <c r="A443">
-        <v>1705586400</v>
+        <v>1705575600</v>
       </c>
       <c r="B443" t="s">
         <v>428</v>
@@ -16733,7 +16733,7 @@
     </row>
     <row r="444" spans="1:10">
       <c r="A444">
-        <v>1705590000</v>
+        <v>1705579200</v>
       </c>
       <c r="B444" t="s">
         <v>429</v>
@@ -16765,7 +16765,7 @@
     </row>
     <row r="445" spans="1:10">
       <c r="A445">
-        <v>1705593600</v>
+        <v>1705582800</v>
       </c>
       <c r="B445" t="s">
         <v>430</v>
@@ -16797,7 +16797,7 @@
     </row>
     <row r="446" spans="1:10">
       <c r="A446">
-        <v>1705597200</v>
+        <v>1705586400</v>
       </c>
       <c r="B446" t="s">
         <v>431</v>
@@ -16829,7 +16829,7 @@
     </row>
     <row r="447" spans="1:10">
       <c r="A447">
-        <v>1705600800</v>
+        <v>1705590000</v>
       </c>
       <c r="B447" t="s">
         <v>432</v>
@@ -16861,7 +16861,7 @@
     </row>
     <row r="448" spans="1:10">
       <c r="A448">
-        <v>1705604400</v>
+        <v>1705593600</v>
       </c>
       <c r="B448" t="s">
         <v>433</v>
@@ -16893,7 +16893,7 @@
     </row>
     <row r="449" spans="1:10">
       <c r="A449">
-        <v>1705608000</v>
+        <v>1705597200</v>
       </c>
       <c r="B449" t="s">
         <v>434</v>
@@ -16925,7 +16925,7 @@
     </row>
     <row r="450" spans="1:10">
       <c r="A450">
-        <v>1705611600</v>
+        <v>1705600800</v>
       </c>
       <c r="B450" t="s">
         <v>435</v>
@@ -16957,7 +16957,7 @@
     </row>
     <row r="451" spans="1:10">
       <c r="A451">
-        <v>1705615200</v>
+        <v>1705604400</v>
       </c>
       <c r="B451" t="s">
         <v>436</v>
@@ -16989,7 +16989,7 @@
     </row>
     <row r="452" spans="1:10">
       <c r="A452">
-        <v>1705618800</v>
+        <v>1705608000</v>
       </c>
       <c r="B452" t="s">
         <v>437</v>
@@ -17021,7 +17021,7 @@
     </row>
     <row r="453" spans="1:10">
       <c r="A453">
-        <v>1705622400</v>
+        <v>1705611600</v>
       </c>
       <c r="B453" t="s">
         <v>438</v>
@@ -17053,7 +17053,7 @@
     </row>
     <row r="454" spans="1:10">
       <c r="A454">
-        <v>1705626000</v>
+        <v>1705615200</v>
       </c>
       <c r="B454" t="s">
         <v>439</v>
@@ -17085,7 +17085,7 @@
     </row>
     <row r="455" spans="1:10">
       <c r="A455">
-        <v>1705629600</v>
+        <v>1705618800</v>
       </c>
       <c r="B455" t="s">
         <v>440</v>
@@ -17117,7 +17117,7 @@
     </row>
     <row r="456" spans="1:10">
       <c r="A456">
-        <v>1705633200</v>
+        <v>1705622400</v>
       </c>
       <c r="B456" t="s">
         <v>441</v>
@@ -17149,7 +17149,7 @@
     </row>
     <row r="457" spans="1:10">
       <c r="A457">
-        <v>1705636800</v>
+        <v>1705626000</v>
       </c>
       <c r="B457" t="s">
         <v>442</v>
@@ -17181,7 +17181,7 @@
     </row>
     <row r="458" spans="1:10">
       <c r="A458">
-        <v>1705640400</v>
+        <v>1705629600</v>
       </c>
       <c r="B458" t="s">
         <v>443</v>
@@ -17213,7 +17213,7 @@
     </row>
     <row r="459" spans="1:10">
       <c r="A459">
-        <v>1705644000</v>
+        <v>1705633200</v>
       </c>
       <c r="B459" t="s">
         <v>444</v>
@@ -17245,7 +17245,7 @@
     </row>
     <row r="460" spans="1:10">
       <c r="A460">
-        <v>1705647600</v>
+        <v>1705636800</v>
       </c>
       <c r="B460" t="s">
         <v>445</v>
@@ -17277,7 +17277,7 @@
     </row>
     <row r="461" spans="1:10">
       <c r="A461">
-        <v>1705651200</v>
+        <v>1705640400</v>
       </c>
       <c r="B461" t="s">
         <v>446</v>
@@ -17309,7 +17309,7 @@
     </row>
     <row r="462" spans="1:10">
       <c r="A462">
-        <v>1705654800</v>
+        <v>1705644000</v>
       </c>
       <c r="B462" t="s">
         <v>447</v>
@@ -17341,7 +17341,7 @@
     </row>
     <row r="463" spans="1:10">
       <c r="A463">
-        <v>1705658400</v>
+        <v>1705647600</v>
       </c>
       <c r="B463" t="s">
         <v>448</v>
@@ -17373,7 +17373,7 @@
     </row>
     <row r="464" spans="1:10">
       <c r="A464">
-        <v>1705662000</v>
+        <v>1705651200</v>
       </c>
       <c r="B464" t="s">
         <v>449</v>
@@ -17405,7 +17405,7 @@
     </row>
     <row r="465" spans="1:10">
       <c r="A465">
-        <v>1705665600</v>
+        <v>1705654800</v>
       </c>
       <c r="B465" t="s">
         <v>450</v>
@@ -17437,7 +17437,7 @@
     </row>
     <row r="466" spans="1:10">
       <c r="A466">
-        <v>1705669200</v>
+        <v>1705658400</v>
       </c>
       <c r="B466" t="s">
         <v>451</v>
@@ -17469,7 +17469,7 @@
     </row>
     <row r="467" spans="1:10">
       <c r="A467">
-        <v>1705672800</v>
+        <v>1705662000</v>
       </c>
       <c r="B467" t="s">
         <v>452</v>
@@ -17501,7 +17501,7 @@
     </row>
     <row r="468" spans="1:10">
       <c r="A468">
-        <v>1705676400</v>
+        <v>1705665600</v>
       </c>
       <c r="B468" t="s">
         <v>453</v>
@@ -17533,7 +17533,7 @@
     </row>
     <row r="469" spans="1:10">
       <c r="A469">
-        <v>1705680000</v>
+        <v>1705669200</v>
       </c>
       <c r="B469" t="s">
         <v>454</v>
@@ -17565,7 +17565,7 @@
     </row>
     <row r="470" spans="1:10">
       <c r="A470">
-        <v>1705683600</v>
+        <v>1705672800</v>
       </c>
       <c r="B470" t="s">
         <v>455</v>
@@ -17597,7 +17597,7 @@
     </row>
     <row r="471" spans="1:10">
       <c r="A471">
-        <v>1705687200</v>
+        <v>1705676400</v>
       </c>
       <c r="B471" t="s">
         <v>456</v>
@@ -17629,7 +17629,7 @@
     </row>
     <row r="472" spans="1:10">
       <c r="A472">
-        <v>1705690800</v>
+        <v>1705680000</v>
       </c>
       <c r="B472" t="s">
         <v>457</v>
@@ -17661,7 +17661,7 @@
     </row>
     <row r="473" spans="1:10">
       <c r="A473">
-        <v>1705694400</v>
+        <v>1705683600</v>
       </c>
       <c r="B473" t="s">
         <v>458</v>
@@ -17693,7 +17693,7 @@
     </row>
     <row r="474" spans="1:10">
       <c r="A474">
-        <v>1705698000</v>
+        <v>1705687200</v>
       </c>
       <c r="B474" t="s">
         <v>459</v>
@@ -17725,7 +17725,7 @@
     </row>
     <row r="475" spans="1:10">
       <c r="A475">
-        <v>1705701600</v>
+        <v>1705690800</v>
       </c>
       <c r="B475" t="s">
         <v>460</v>
@@ -17757,7 +17757,7 @@
     </row>
     <row r="476" spans="1:10">
       <c r="A476">
-        <v>1705705200</v>
+        <v>1705694400</v>
       </c>
       <c r="B476" t="s">
         <v>461</v>
@@ -17789,7 +17789,7 @@
     </row>
     <row r="477" spans="1:10">
       <c r="A477">
-        <v>1705708800</v>
+        <v>1705698000</v>
       </c>
       <c r="B477" t="s">
         <v>462</v>
@@ -17821,7 +17821,7 @@
     </row>
     <row r="478" spans="1:10">
       <c r="A478">
-        <v>1705712400</v>
+        <v>1705701600</v>
       </c>
       <c r="B478" t="s">
         <v>463</v>
@@ -17853,7 +17853,7 @@
     </row>
     <row r="479" spans="1:10">
       <c r="A479">
-        <v>1705716000</v>
+        <v>1705705200</v>
       </c>
       <c r="B479" t="s">
         <v>464</v>
@@ -17885,7 +17885,7 @@
     </row>
     <row r="480" spans="1:10">
       <c r="A480">
-        <v>1705719600</v>
+        <v>1705708800</v>
       </c>
       <c r="B480" t="s">
         <v>465</v>
@@ -17917,7 +17917,7 @@
     </row>
     <row r="481" spans="1:10">
       <c r="A481">
-        <v>1705723200</v>
+        <v>1705712400</v>
       </c>
       <c r="B481" t="s">
         <v>466</v>
@@ -17949,7 +17949,7 @@
     </row>
     <row r="482" spans="1:10">
       <c r="A482">
-        <v>1705726800</v>
+        <v>1705716000</v>
       </c>
       <c r="B482" t="s">
         <v>467</v>
@@ -17981,7 +17981,7 @@
     </row>
     <row r="483" spans="1:10">
       <c r="A483">
-        <v>1705730400</v>
+        <v>1705719600</v>
       </c>
       <c r="B483" t="s">
         <v>468</v>
@@ -18013,7 +18013,7 @@
     </row>
     <row r="484" spans="1:10">
       <c r="A484">
-        <v>1705734000</v>
+        <v>1705723200</v>
       </c>
       <c r="B484" t="s">
         <v>469</v>
@@ -18045,7 +18045,7 @@
     </row>
     <row r="485" spans="1:10">
       <c r="A485">
-        <v>1705737600</v>
+        <v>1705726800</v>
       </c>
       <c r="B485" t="s">
         <v>470</v>
@@ -18077,7 +18077,7 @@
     </row>
     <row r="486" spans="1:10">
       <c r="A486">
-        <v>1705741200</v>
+        <v>1705730400</v>
       </c>
       <c r="B486" t="s">
         <v>471</v>
@@ -18109,7 +18109,7 @@
     </row>
     <row r="487" spans="1:10">
       <c r="A487">
-        <v>1705744800</v>
+        <v>1705734000</v>
       </c>
       <c r="B487" t="s">
         <v>472</v>
@@ -18141,7 +18141,7 @@
     </row>
     <row r="488" spans="1:10">
       <c r="A488">
-        <v>1705748400</v>
+        <v>1705737600</v>
       </c>
       <c r="B488" t="s">
         <v>473</v>
@@ -18173,7 +18173,7 @@
     </row>
     <row r="489" spans="1:10">
       <c r="A489">
-        <v>1705752000</v>
+        <v>1705741200</v>
       </c>
       <c r="B489" t="s">
         <v>474</v>
@@ -18205,7 +18205,7 @@
     </row>
     <row r="490" spans="1:10">
       <c r="A490">
-        <v>1705755600</v>
+        <v>1705744800</v>
       </c>
       <c r="B490" t="s">
         <v>475</v>
@@ -18237,7 +18237,7 @@
     </row>
     <row r="491" spans="1:10">
       <c r="A491">
-        <v>1705759200</v>
+        <v>1705748400</v>
       </c>
       <c r="B491" t="s">
         <v>476</v>
@@ -18269,7 +18269,7 @@
     </row>
     <row r="492" spans="1:10">
       <c r="A492">
-        <v>1705762800</v>
+        <v>1705752000</v>
       </c>
       <c r="B492" t="s">
         <v>477</v>
@@ -18301,7 +18301,7 @@
     </row>
     <row r="493" spans="1:10">
       <c r="A493">
-        <v>1705766400</v>
+        <v>1705755600</v>
       </c>
       <c r="B493" t="s">
         <v>478</v>
@@ -18333,7 +18333,7 @@
     </row>
     <row r="494" spans="1:10">
       <c r="A494">
-        <v>1705770000</v>
+        <v>1705759200</v>
       </c>
       <c r="B494" t="s">
         <v>479</v>
@@ -18365,7 +18365,7 @@
     </row>
     <row r="495" spans="1:10">
       <c r="A495">
-        <v>1705773600</v>
+        <v>1705762800</v>
       </c>
       <c r="B495" t="s">
         <v>480</v>
@@ -18397,7 +18397,7 @@
     </row>
     <row r="496" spans="1:10">
       <c r="A496">
-        <v>1705777200</v>
+        <v>1705766400</v>
       </c>
       <c r="B496" t="s">
         <v>481</v>
@@ -18429,7 +18429,7 @@
     </row>
     <row r="497" spans="1:10">
       <c r="A497">
-        <v>1705780800</v>
+        <v>1705770000</v>
       </c>
       <c r="B497" t="s">
         <v>482</v>
@@ -18461,7 +18461,7 @@
     </row>
     <row r="498" spans="1:10">
       <c r="A498">
-        <v>1705784400</v>
+        <v>1705773600</v>
       </c>
       <c r="B498" t="s">
         <v>483</v>
@@ -18493,7 +18493,7 @@
     </row>
     <row r="499" spans="1:10">
       <c r="A499">
-        <v>1705788000</v>
+        <v>1705777200</v>
       </c>
       <c r="B499" t="s">
         <v>484</v>
@@ -18525,7 +18525,7 @@
     </row>
     <row r="500" spans="1:10">
       <c r="A500">
-        <v>1705791600</v>
+        <v>1705780800</v>
       </c>
       <c r="B500" t="s">
         <v>485</v>
@@ -18557,7 +18557,7 @@
     </row>
     <row r="501" spans="1:10">
       <c r="A501">
-        <v>1705795200</v>
+        <v>1705784400</v>
       </c>
       <c r="B501" t="s">
         <v>486</v>
@@ -18589,7 +18589,7 @@
     </row>
     <row r="502" spans="1:10">
       <c r="A502">
-        <v>1705798800</v>
+        <v>1705788000</v>
       </c>
       <c r="B502" t="s">
         <v>487</v>
@@ -18621,7 +18621,7 @@
     </row>
     <row r="503" spans="1:10">
       <c r="A503">
-        <v>1705802400</v>
+        <v>1705791600</v>
       </c>
       <c r="B503" t="s">
         <v>488</v>
@@ -18653,7 +18653,7 @@
     </row>
     <row r="504" spans="1:10">
       <c r="A504">
-        <v>1705806000</v>
+        <v>1705795200</v>
       </c>
       <c r="B504" t="s">
         <v>489</v>
@@ -18685,7 +18685,7 @@
     </row>
     <row r="505" spans="1:10">
       <c r="A505">
-        <v>1705809600</v>
+        <v>1705798800</v>
       </c>
       <c r="B505" t="s">
         <v>490</v>
@@ -18717,7 +18717,7 @@
     </row>
     <row r="506" spans="1:10">
       <c r="A506">
-        <v>1705813200</v>
+        <v>1705802400</v>
       </c>
       <c r="B506" t="s">
         <v>491</v>
@@ -18749,7 +18749,7 @@
     </row>
     <row r="507" spans="1:10">
       <c r="A507">
-        <v>1705816800</v>
+        <v>1705806000</v>
       </c>
       <c r="B507" t="s">
         <v>492</v>
@@ -18781,7 +18781,7 @@
     </row>
     <row r="508" spans="1:10">
       <c r="A508">
-        <v>1705820400</v>
+        <v>1705809600</v>
       </c>
       <c r="B508" t="s">
         <v>493</v>
@@ -18813,7 +18813,7 @@
     </row>
     <row r="509" spans="1:10">
       <c r="A509">
-        <v>1705824000</v>
+        <v>1705813200</v>
       </c>
       <c r="B509" t="s">
         <v>494</v>
@@ -18845,7 +18845,7 @@
     </row>
     <row r="510" spans="1:10">
       <c r="A510">
-        <v>1705827600</v>
+        <v>1705816800</v>
       </c>
       <c r="B510" t="s">
         <v>495</v>
@@ -18877,7 +18877,7 @@
     </row>
     <row r="511" spans="1:10">
       <c r="A511">
-        <v>1705831200</v>
+        <v>1705820400</v>
       </c>
       <c r="B511" t="s">
         <v>496</v>
@@ -18909,7 +18909,7 @@
     </row>
     <row r="512" spans="1:10">
       <c r="A512">
-        <v>1705834800</v>
+        <v>1705824000</v>
       </c>
       <c r="B512" t="s">
         <v>497</v>
@@ -18941,7 +18941,7 @@
     </row>
     <row r="513" spans="1:10">
       <c r="A513">
-        <v>1705838400</v>
+        <v>1705827600</v>
       </c>
       <c r="B513" t="s">
         <v>498</v>
@@ -18973,7 +18973,7 @@
     </row>
     <row r="514" spans="1:10">
       <c r="A514">
-        <v>1705842000</v>
+        <v>1705831200</v>
       </c>
       <c r="B514" t="s">
         <v>499</v>
@@ -19005,7 +19005,7 @@
     </row>
     <row r="515" spans="1:10">
       <c r="A515">
-        <v>1705845600</v>
+        <v>1705834800</v>
       </c>
       <c r="B515" t="s">
         <v>500</v>
@@ -19037,7 +19037,7 @@
     </row>
     <row r="516" spans="1:10">
       <c r="A516">
-        <v>1705849200</v>
+        <v>1705838400</v>
       </c>
       <c r="B516" t="s">
         <v>501</v>
@@ -19069,7 +19069,7 @@
     </row>
     <row r="517" spans="1:10">
       <c r="A517">
-        <v>1705852800</v>
+        <v>1705842000</v>
       </c>
       <c r="B517" t="s">
         <v>502</v>
@@ -19101,7 +19101,7 @@
     </row>
     <row r="518" spans="1:10">
       <c r="A518">
-        <v>1705856400</v>
+        <v>1705845600</v>
       </c>
       <c r="B518" t="s">
         <v>503</v>
@@ -19133,7 +19133,7 @@
     </row>
     <row r="519" spans="1:10">
       <c r="A519">
-        <v>1705860000</v>
+        <v>1705849200</v>
       </c>
       <c r="B519" t="s">
         <v>504</v>
@@ -19165,7 +19165,7 @@
     </row>
     <row r="520" spans="1:10">
       <c r="A520">
-        <v>1705863600</v>
+        <v>1705852800</v>
       </c>
       <c r="B520" t="s">
         <v>505</v>
@@ -19197,7 +19197,7 @@
     </row>
     <row r="521" spans="1:10">
       <c r="A521">
-        <v>1705867200</v>
+        <v>1705856400</v>
       </c>
       <c r="B521" t="s">
         <v>506</v>
@@ -19229,7 +19229,7 @@
     </row>
     <row r="522" spans="1:10">
       <c r="A522">
-        <v>1705870800</v>
+        <v>1705860000</v>
       </c>
       <c r="B522" t="s">
         <v>507</v>
@@ -19261,7 +19261,7 @@
     </row>
     <row r="523" spans="1:10">
       <c r="A523">
-        <v>1705874400</v>
+        <v>1705863600</v>
       </c>
       <c r="B523" t="s">
         <v>508</v>
@@ -19293,7 +19293,7 @@
     </row>
     <row r="524" spans="1:10">
       <c r="A524">
-        <v>1705878000</v>
+        <v>1705867200</v>
       </c>
       <c r="B524" t="s">
         <v>509</v>
@@ -19325,7 +19325,7 @@
     </row>
     <row r="525" spans="1:10">
       <c r="A525">
-        <v>1705881600</v>
+        <v>1705870800</v>
       </c>
       <c r="B525" t="s">
         <v>510</v>
@@ -19357,7 +19357,7 @@
     </row>
     <row r="526" spans="1:10">
       <c r="A526">
-        <v>1705885200</v>
+        <v>1705874400</v>
       </c>
       <c r="B526" t="s">
         <v>511</v>
@@ -19389,7 +19389,7 @@
     </row>
     <row r="527" spans="1:10">
       <c r="A527">
-        <v>1705888800</v>
+        <v>1705878000</v>
       </c>
       <c r="B527" t="s">
         <v>512</v>
@@ -19421,7 +19421,7 @@
     </row>
     <row r="528" spans="1:10">
       <c r="A528">
-        <v>1705892400</v>
+        <v>1705881600</v>
       </c>
       <c r="B528" t="s">
         <v>513</v>
@@ -19453,7 +19453,7 @@
     </row>
     <row r="529" spans="1:10">
       <c r="A529">
-        <v>1705896000</v>
+        <v>1705885200</v>
       </c>
       <c r="B529" t="s">
         <v>514</v>
@@ -19485,7 +19485,7 @@
     </row>
     <row r="530" spans="1:10">
       <c r="A530">
-        <v>1705899600</v>
+        <v>1705888800</v>
       </c>
       <c r="B530" t="s">
         <v>515</v>
@@ -19517,7 +19517,7 @@
     </row>
     <row r="531" spans="1:10">
       <c r="A531">
-        <v>1705903200</v>
+        <v>1705892400</v>
       </c>
       <c r="B531" t="s">
         <v>516</v>
@@ -19549,7 +19549,7 @@
     </row>
     <row r="532" spans="1:10">
       <c r="A532">
-        <v>1705906800</v>
+        <v>1705896000</v>
       </c>
       <c r="B532" t="s">
         <v>517</v>
@@ -19581,7 +19581,7 @@
     </row>
     <row r="533" spans="1:10">
       <c r="A533">
-        <v>1705910400</v>
+        <v>1705899600</v>
       </c>
       <c r="B533" t="s">
         <v>518</v>
@@ -19613,7 +19613,7 @@
     </row>
     <row r="534" spans="1:10">
       <c r="A534">
-        <v>1705914000</v>
+        <v>1705903200</v>
       </c>
       <c r="B534" t="s">
         <v>519</v>
@@ -19645,7 +19645,7 @@
     </row>
     <row r="535" spans="1:10">
       <c r="A535">
-        <v>1705917600</v>
+        <v>1705906800</v>
       </c>
       <c r="B535" t="s">
         <v>520</v>
@@ -19677,7 +19677,7 @@
     </row>
     <row r="536" spans="1:10">
       <c r="A536">
-        <v>1705921200</v>
+        <v>1705910400</v>
       </c>
       <c r="B536" t="s">
         <v>521</v>
@@ -19709,7 +19709,7 @@
     </row>
     <row r="537" spans="1:10">
       <c r="A537">
-        <v>1705924800</v>
+        <v>1705914000</v>
       </c>
       <c r="B537" t="s">
         <v>522</v>
@@ -19741,7 +19741,7 @@
     </row>
     <row r="538" spans="1:10">
       <c r="A538">
-        <v>1705928400</v>
+        <v>1705917600</v>
       </c>
       <c r="B538" t="s">
         <v>523</v>
@@ -19773,7 +19773,7 @@
     </row>
     <row r="539" spans="1:10">
       <c r="A539">
-        <v>1705932000</v>
+        <v>1705921200</v>
       </c>
       <c r="B539" t="s">
         <v>524</v>
@@ -19805,7 +19805,7 @@
     </row>
     <row r="540" spans="1:10">
       <c r="A540">
-        <v>1705935600</v>
+        <v>1705924800</v>
       </c>
       <c r="B540" t="s">
         <v>525</v>
@@ -19837,7 +19837,7 @@
     </row>
     <row r="541" spans="1:10">
       <c r="A541">
-        <v>1705939200</v>
+        <v>1705928400</v>
       </c>
       <c r="B541" t="s">
         <v>526</v>
@@ -19869,7 +19869,7 @@
     </row>
     <row r="542" spans="1:10">
       <c r="A542">
-        <v>1705942800</v>
+        <v>1705932000</v>
       </c>
       <c r="B542" t="s">
         <v>527</v>
@@ -19901,7 +19901,7 @@
     </row>
     <row r="543" spans="1:10">
       <c r="A543">
-        <v>1705946400</v>
+        <v>1705935600</v>
       </c>
       <c r="B543" t="s">
         <v>528</v>
@@ -19933,7 +19933,7 @@
     </row>
     <row r="544" spans="1:10">
       <c r="A544">
-        <v>1705950000</v>
+        <v>1705939200</v>
       </c>
       <c r="B544" t="s">
         <v>529</v>
@@ -19965,7 +19965,7 @@
     </row>
     <row r="545" spans="1:10">
       <c r="A545">
-        <v>1705953600</v>
+        <v>1705942800</v>
       </c>
       <c r="B545" t="s">
         <v>530</v>
@@ -19997,7 +19997,7 @@
     </row>
     <row r="546" spans="1:10">
       <c r="A546">
-        <v>1705957200</v>
+        <v>1705946400</v>
       </c>
       <c r="B546" t="s">
         <v>531</v>
@@ -20029,7 +20029,7 @@
     </row>
     <row r="547" spans="1:10">
       <c r="A547">
-        <v>1705960800</v>
+        <v>1705950000</v>
       </c>
       <c r="B547" t="s">
         <v>532</v>
@@ -20061,7 +20061,7 @@
     </row>
     <row r="548" spans="1:10">
       <c r="A548">
-        <v>1705964400</v>
+        <v>1705953600</v>
       </c>
       <c r="B548" t="s">
         <v>533</v>
@@ -20093,7 +20093,7 @@
     </row>
     <row r="549" spans="1:10">
       <c r="A549">
-        <v>1705968000</v>
+        <v>1705957200</v>
       </c>
       <c r="B549" t="s">
         <v>534</v>
@@ -20125,7 +20125,7 @@
     </row>
     <row r="550" spans="1:10">
       <c r="A550">
-        <v>1705971600</v>
+        <v>1705960800</v>
       </c>
       <c r="B550" t="s">
         <v>535</v>
@@ -20157,7 +20157,7 @@
     </row>
     <row r="551" spans="1:10">
       <c r="A551">
-        <v>1705975200</v>
+        <v>1705964400</v>
       </c>
       <c r="B551" t="s">
         <v>536</v>
@@ -20189,7 +20189,7 @@
     </row>
     <row r="552" spans="1:10">
       <c r="A552">
-        <v>1705978800</v>
+        <v>1705968000</v>
       </c>
       <c r="B552" t="s">
         <v>537</v>
@@ -20221,7 +20221,7 @@
     </row>
     <row r="553" spans="1:10">
       <c r="A553">
-        <v>1705982400</v>
+        <v>1705971600</v>
       </c>
       <c r="B553" t="s">
         <v>538</v>
@@ -20253,7 +20253,7 @@
     </row>
     <row r="554" spans="1:10">
       <c r="A554">
-        <v>1705986000</v>
+        <v>1705975200</v>
       </c>
       <c r="B554" t="s">
         <v>539</v>
@@ -20285,7 +20285,7 @@
     </row>
     <row r="555" spans="1:10">
       <c r="A555">
-        <v>1705989600</v>
+        <v>1705978800</v>
       </c>
       <c r="B555" t="s">
         <v>540</v>
@@ -20317,7 +20317,7 @@
     </row>
     <row r="556" spans="1:10">
       <c r="A556">
-        <v>1705993200</v>
+        <v>1705982400</v>
       </c>
       <c r="B556" t="s">
         <v>541</v>
@@ -20349,7 +20349,7 @@
     </row>
     <row r="557" spans="1:10">
       <c r="A557">
-        <v>1705996800</v>
+        <v>1705986000</v>
       </c>
       <c r="B557" t="s">
         <v>542</v>
@@ -20381,7 +20381,7 @@
     </row>
     <row r="558" spans="1:10">
       <c r="A558">
-        <v>1706000400</v>
+        <v>1705989600</v>
       </c>
       <c r="B558" t="s">
         <v>543</v>
@@ -20413,7 +20413,7 @@
     </row>
     <row r="559" spans="1:10">
       <c r="A559">
-        <v>1706004000</v>
+        <v>1705993200</v>
       </c>
       <c r="B559" t="s">
         <v>544</v>
@@ -20445,7 +20445,7 @@
     </row>
     <row r="560" spans="1:10">
       <c r="A560">
-        <v>1706007600</v>
+        <v>1705996800</v>
       </c>
       <c r="B560" t="s">
         <v>545</v>
@@ -20477,7 +20477,7 @@
     </row>
     <row r="561" spans="1:10">
       <c r="A561">
-        <v>1706011200</v>
+        <v>1706000400</v>
       </c>
       <c r="B561" t="s">
         <v>546</v>
@@ -20509,7 +20509,7 @@
     </row>
     <row r="562" spans="1:10">
       <c r="A562">
-        <v>1706014800</v>
+        <v>1706004000</v>
       </c>
       <c r="B562" t="s">
         <v>547</v>
@@ -20541,7 +20541,7 @@
     </row>
     <row r="563" spans="1:10">
       <c r="A563">
-        <v>1706018400</v>
+        <v>1706007600</v>
       </c>
       <c r="B563" t="s">
         <v>548</v>
@@ -20573,7 +20573,7 @@
     </row>
     <row r="564" spans="1:10">
       <c r="A564">
-        <v>1706022000</v>
+        <v>1706011200</v>
       </c>
       <c r="B564" t="s">
         <v>549</v>
@@ -20605,7 +20605,7 @@
     </row>
     <row r="565" spans="1:10">
       <c r="A565">
-        <v>1706025600</v>
+        <v>1706014800</v>
       </c>
       <c r="B565" t="s">
         <v>550</v>
@@ -20637,7 +20637,7 @@
     </row>
     <row r="566" spans="1:10">
       <c r="A566">
-        <v>1706029200</v>
+        <v>1706018400</v>
       </c>
       <c r="B566" t="s">
         <v>551</v>
@@ -20669,7 +20669,7 @@
     </row>
     <row r="567" spans="1:10">
       <c r="A567">
-        <v>1706032800</v>
+        <v>1706022000</v>
       </c>
       <c r="B567" t="s">
         <v>552</v>
@@ -20701,7 +20701,7 @@
     </row>
     <row r="568" spans="1:10">
       <c r="A568">
-        <v>1706036400</v>
+        <v>1706025600</v>
       </c>
       <c r="B568" t="s">
         <v>553</v>
@@ -20733,7 +20733,7 @@
     </row>
     <row r="569" spans="1:10">
       <c r="A569">
-        <v>1706040000</v>
+        <v>1706029200</v>
       </c>
       <c r="B569" t="s">
         <v>554</v>
@@ -20765,7 +20765,7 @@
     </row>
     <row r="570" spans="1:10">
       <c r="A570">
-        <v>1706043600</v>
+        <v>1706032800</v>
       </c>
       <c r="B570" t="s">
         <v>555</v>
@@ -20797,7 +20797,7 @@
     </row>
     <row r="571" spans="1:10">
       <c r="A571">
-        <v>1706047200</v>
+        <v>1706036400</v>
       </c>
       <c r="B571" t="s">
         <v>556</v>
@@ -20829,7 +20829,7 @@
     </row>
     <row r="572" spans="1:10">
       <c r="A572">
-        <v>1706050800</v>
+        <v>1706040000</v>
       </c>
       <c r="B572" t="s">
         <v>557</v>
@@ -20861,7 +20861,7 @@
     </row>
     <row r="573" spans="1:10">
       <c r="A573">
-        <v>1706054400</v>
+        <v>1706043600</v>
       </c>
       <c r="B573" t="s">
         <v>558</v>
@@ -20893,7 +20893,7 @@
     </row>
     <row r="574" spans="1:10">
       <c r="A574">
-        <v>1706058000</v>
+        <v>1706047200</v>
       </c>
       <c r="B574" t="s">
         <v>559</v>
@@ -20925,7 +20925,7 @@
     </row>
     <row r="575" spans="1:10">
       <c r="A575">
-        <v>1706061600</v>
+        <v>1706050800</v>
       </c>
       <c r="B575" t="s">
         <v>560</v>
@@ -20957,7 +20957,7 @@
     </row>
     <row r="576" spans="1:10">
       <c r="A576">
-        <v>1706065200</v>
+        <v>1706054400</v>
       </c>
       <c r="B576" t="s">
         <v>561</v>
@@ -20989,7 +20989,7 @@
     </row>
     <row r="577" spans="1:10">
       <c r="A577">
-        <v>1706068800</v>
+        <v>1706058000</v>
       </c>
       <c r="B577" t="s">
         <v>562</v>
@@ -21021,7 +21021,7 @@
     </row>
     <row r="578" spans="1:10">
       <c r="A578">
-        <v>1706072400</v>
+        <v>1706061600</v>
       </c>
       <c r="B578" t="s">
         <v>563</v>
@@ -21053,7 +21053,7 @@
     </row>
     <row r="579" spans="1:10">
       <c r="A579">
-        <v>1706076000</v>
+        <v>1706065200</v>
       </c>
       <c r="B579" t="s">
         <v>564</v>
@@ -21085,7 +21085,7 @@
     </row>
     <row r="580" spans="1:10">
       <c r="A580">
-        <v>1706079600</v>
+        <v>1706068800</v>
       </c>
       <c r="B580" t="s">
         <v>565</v>
@@ -21117,7 +21117,7 @@
     </row>
     <row r="581" spans="1:10">
       <c r="A581">
-        <v>1706083200</v>
+        <v>1706072400</v>
       </c>
       <c r="B581" t="s">
         <v>566</v>
@@ -21149,7 +21149,7 @@
     </row>
     <row r="582" spans="1:10">
       <c r="A582">
-        <v>1706086800</v>
+        <v>1706076000</v>
       </c>
       <c r="B582" t="s">
         <v>567</v>
@@ -21181,7 +21181,7 @@
     </row>
     <row r="583" spans="1:10">
       <c r="A583">
-        <v>1706090400</v>
+        <v>1706079600</v>
       </c>
       <c r="B583" t="s">
         <v>568</v>
@@ -21213,7 +21213,7 @@
     </row>
     <row r="584" spans="1:10">
       <c r="A584">
-        <v>1706094000</v>
+        <v>1706083200</v>
       </c>
       <c r="B584" t="s">
         <v>569</v>
@@ -21245,7 +21245,7 @@
     </row>
     <row r="585" spans="1:10">
       <c r="A585">
-        <v>1706097600</v>
+        <v>1706086800</v>
       </c>
       <c r="B585" t="s">
         <v>570</v>
@@ -21277,7 +21277,7 @@
     </row>
     <row r="586" spans="1:10">
       <c r="A586">
-        <v>1706101200</v>
+        <v>1706090400</v>
       </c>
       <c r="B586" t="s">
         <v>571</v>
@@ -21309,7 +21309,7 @@
     </row>
     <row r="587" spans="1:10">
       <c r="A587">
-        <v>1706104800</v>
+        <v>1706094000</v>
       </c>
       <c r="B587" t="s">
         <v>572</v>
@@ -21341,7 +21341,7 @@
     </row>
     <row r="588" spans="1:10">
       <c r="A588">
-        <v>1706108400</v>
+        <v>1706097600</v>
       </c>
       <c r="B588" t="s">
         <v>573</v>
@@ -21373,7 +21373,7 @@
     </row>
     <row r="589" spans="1:10">
       <c r="A589">
-        <v>1706112000</v>
+        <v>1706101200</v>
       </c>
       <c r="B589" t="s">
         <v>574</v>
@@ -21405,7 +21405,7 @@
     </row>
     <row r="590" spans="1:10">
       <c r="A590">
-        <v>1706115600</v>
+        <v>1706104800</v>
       </c>
       <c r="B590" t="s">
         <v>575</v>
@@ -21437,7 +21437,7 @@
     </row>
     <row r="591" spans="1:10">
       <c r="A591">
-        <v>1706119200</v>
+        <v>1706108400</v>
       </c>
       <c r="B591" t="s">
         <v>576</v>
@@ -21469,7 +21469,7 @@
     </row>
     <row r="592" spans="1:10">
       <c r="A592">
-        <v>1706122800</v>
+        <v>1706112000</v>
       </c>
       <c r="B592" t="s">
         <v>577</v>
@@ -21501,7 +21501,7 @@
     </row>
     <row r="593" spans="1:10">
       <c r="A593">
-        <v>1706126400</v>
+        <v>1706115600</v>
       </c>
       <c r="B593" t="s">
         <v>578</v>
@@ -21533,7 +21533,7 @@
     </row>
     <row r="594" spans="1:10">
       <c r="A594">
-        <v>1706130000</v>
+        <v>1706119200</v>
       </c>
       <c r="B594" t="s">
         <v>579</v>
@@ -21565,7 +21565,7 @@
     </row>
     <row r="595" spans="1:10">
       <c r="A595">
-        <v>1706133600</v>
+        <v>1706122800</v>
       </c>
       <c r="B595" t="s">
         <v>580</v>
@@ -21597,7 +21597,7 @@
     </row>
     <row r="596" spans="1:10">
       <c r="A596">
-        <v>1706137200</v>
+        <v>1706126400</v>
       </c>
       <c r="B596" t="s">
         <v>581</v>
@@ -21629,7 +21629,7 @@
     </row>
     <row r="597" spans="1:10">
       <c r="A597">
-        <v>1706140800</v>
+        <v>1706130000</v>
       </c>
       <c r="B597" t="s">
         <v>582</v>
@@ -21661,7 +21661,7 @@
     </row>
     <row r="598" spans="1:10">
       <c r="A598">
-        <v>1706144400</v>
+        <v>1706133600</v>
       </c>
       <c r="B598" t="s">
         <v>583</v>
@@ -21693,7 +21693,7 @@
     </row>
     <row r="599" spans="1:10">
       <c r="A599">
-        <v>1706148000</v>
+        <v>1706137200</v>
       </c>
       <c r="B599" t="s">
         <v>584</v>
@@ -21725,7 +21725,7 @@
     </row>
     <row r="600" spans="1:10">
       <c r="A600">
-        <v>1706151600</v>
+        <v>1706140800</v>
       </c>
       <c r="B600" t="s">
         <v>585</v>
@@ -21757,7 +21757,7 @@
     </row>
     <row r="601" spans="1:10">
       <c r="A601">
-        <v>1706155200</v>
+        <v>1706144400</v>
       </c>
       <c r="B601" t="s">
         <v>586</v>
@@ -21789,7 +21789,7 @@
     </row>
     <row r="602" spans="1:10">
       <c r="A602">
-        <v>1706158800</v>
+        <v>1706148000</v>
       </c>
       <c r="B602" t="s">
         <v>587</v>
@@ -21821,7 +21821,7 @@
     </row>
     <row r="603" spans="1:10">
       <c r="A603">
-        <v>1706162400</v>
+        <v>1706151600</v>
       </c>
       <c r="B603" t="s">
         <v>588</v>
@@ -21853,7 +21853,7 @@
     </row>
     <row r="604" spans="1:10">
       <c r="A604">
-        <v>1706166000</v>
+        <v>1706155200</v>
       </c>
       <c r="B604" t="s">
         <v>589</v>
@@ -21885,7 +21885,7 @@
     </row>
     <row r="605" spans="1:10">
       <c r="A605">
-        <v>1706169600</v>
+        <v>1706158800</v>
       </c>
       <c r="B605" t="s">
         <v>590</v>
@@ -21917,7 +21917,7 @@
     </row>
     <row r="606" spans="1:10">
       <c r="A606">
-        <v>1706173200</v>
+        <v>1706162400</v>
       </c>
       <c r="B606" t="s">
         <v>591</v>
@@ -21949,7 +21949,7 @@
     </row>
     <row r="607" spans="1:10">
       <c r="A607">
-        <v>1706176800</v>
+        <v>1706166000</v>
       </c>
       <c r="B607" t="s">
         <v>592</v>
@@ -21981,7 +21981,7 @@
     </row>
     <row r="608" spans="1:10">
       <c r="A608">
-        <v>1706180400</v>
+        <v>1706169600</v>
       </c>
       <c r="B608" t="s">
         <v>593</v>
@@ -22013,7 +22013,7 @@
     </row>
     <row r="609" spans="1:10">
       <c r="A609">
-        <v>1706184000</v>
+        <v>1706173200</v>
       </c>
       <c r="B609" t="s">
         <v>594</v>
@@ -22045,7 +22045,7 @@
     </row>
     <row r="610" spans="1:10">
       <c r="A610">
-        <v>1706187600</v>
+        <v>1706176800</v>
       </c>
       <c r="B610" t="s">
         <v>595</v>
@@ -22077,7 +22077,7 @@
     </row>
     <row r="611" spans="1:10">
       <c r="A611">
-        <v>1706191200</v>
+        <v>1706180400</v>
       </c>
       <c r="B611" t="s">
         <v>596</v>
@@ -22109,7 +22109,7 @@
     </row>
     <row r="612" spans="1:10">
       <c r="A612">
-        <v>1706194800</v>
+        <v>1706184000</v>
       </c>
       <c r="B612" t="s">
         <v>597</v>
@@ -22141,7 +22141,7 @@
     </row>
     <row r="613" spans="1:10">
       <c r="A613">
-        <v>1706198400</v>
+        <v>1706187600</v>
       </c>
       <c r="B613" t="s">
         <v>598</v>
@@ -22173,7 +22173,7 @@
     </row>
     <row r="614" spans="1:10">
       <c r="A614">
-        <v>1706202000</v>
+        <v>1706191200</v>
       </c>
       <c r="B614" t="s">
         <v>599</v>
@@ -22205,7 +22205,7 @@
     </row>
     <row r="615" spans="1:10">
       <c r="A615">
-        <v>1706205600</v>
+        <v>1706194800</v>
       </c>
       <c r="B615" t="s">
         <v>600</v>
@@ -22237,7 +22237,7 @@
     </row>
     <row r="616" spans="1:10">
       <c r="A616">
-        <v>1706209200</v>
+        <v>1706198400</v>
       </c>
       <c r="B616" t="s">
         <v>601</v>
@@ -22269,7 +22269,7 @@
     </row>
     <row r="617" spans="1:10">
       <c r="A617">
-        <v>1706212800</v>
+        <v>1706202000</v>
       </c>
       <c r="B617" t="s">
         <v>602</v>
@@ -22301,7 +22301,7 @@
     </row>
     <row r="618" spans="1:10">
       <c r="A618">
-        <v>1706216400</v>
+        <v>1706205600</v>
       </c>
       <c r="B618" t="s">
         <v>603</v>
@@ -22333,7 +22333,7 @@
     </row>
     <row r="619" spans="1:10">
       <c r="A619">
-        <v>1706220000</v>
+        <v>1706209200</v>
       </c>
       <c r="B619" t="s">
         <v>604</v>
@@ -22365,7 +22365,7 @@
     </row>
     <row r="620" spans="1:10">
       <c r="A620">
-        <v>1706223600</v>
+        <v>1706212800</v>
       </c>
       <c r="B620" t="s">
         <v>605</v>
@@ -22397,7 +22397,7 @@
     </row>
     <row r="621" spans="1:10">
       <c r="A621">
-        <v>1706227200</v>
+        <v>1706216400</v>
       </c>
       <c r="B621" t="s">
         <v>606</v>
@@ -22429,7 +22429,7 @@
     </row>
     <row r="622" spans="1:10">
       <c r="A622">
-        <v>1706230800</v>
+        <v>1706220000</v>
       </c>
       <c r="B622" t="s">
         <v>607</v>
@@ -22461,7 +22461,7 @@
     </row>
     <row r="623" spans="1:10">
       <c r="A623">
-        <v>1706234400</v>
+        <v>1706223600</v>
       </c>
       <c r="B623" t="s">
         <v>608</v>
@@ -22493,7 +22493,7 @@
     </row>
     <row r="624" spans="1:10">
       <c r="A624">
-        <v>1706238000</v>
+        <v>1706227200</v>
       </c>
       <c r="B624" t="s">
         <v>609</v>
@@ -22525,7 +22525,7 @@
     </row>
     <row r="625" spans="1:10">
       <c r="A625">
-        <v>1706241600</v>
+        <v>1706230800</v>
       </c>
       <c r="B625" t="s">
         <v>610</v>
@@ -22557,7 +22557,7 @@
     </row>
     <row r="626" spans="1:10">
       <c r="A626">
-        <v>1706245200</v>
+        <v>1706234400</v>
       </c>
       <c r="B626" t="s">
         <v>611</v>
@@ -22589,7 +22589,7 @@
     </row>
     <row r="627" spans="1:10">
       <c r="A627">
-        <v>1706248800</v>
+        <v>1706238000</v>
       </c>
       <c r="B627" t="s">
         <v>612</v>
@@ -22621,7 +22621,7 @@
     </row>
     <row r="628" spans="1:10">
       <c r="A628">
-        <v>1706252400</v>
+        <v>1706241600</v>
       </c>
       <c r="B628" t="s">
         <v>613</v>
@@ -22653,7 +22653,7 @@
     </row>
     <row r="629" spans="1:10">
       <c r="A629">
-        <v>1706256000</v>
+        <v>1706245200</v>
       </c>
       <c r="B629" t="s">
         <v>614</v>
@@ -22685,7 +22685,7 @@
     </row>
     <row r="630" spans="1:10">
       <c r="A630">
-        <v>1706259600</v>
+        <v>1706248800</v>
       </c>
       <c r="B630" t="s">
         <v>615</v>
@@ -22717,7 +22717,7 @@
     </row>
     <row r="631" spans="1:10">
       <c r="A631">
-        <v>1706263200</v>
+        <v>1706252400</v>
       </c>
       <c r="B631" t="s">
         <v>616</v>
@@ -22749,7 +22749,7 @@
     </row>
     <row r="632" spans="1:10">
       <c r="A632">
-        <v>1706266800</v>
+        <v>1706256000</v>
       </c>
       <c r="B632" t="s">
         <v>617</v>
@@ -22781,7 +22781,7 @@
     </row>
     <row r="633" spans="1:10">
       <c r="A633">
-        <v>1706270400</v>
+        <v>1706259600</v>
       </c>
       <c r="B633" t="s">
         <v>618</v>
@@ -22813,7 +22813,7 @@
     </row>
     <row r="634" spans="1:10">
       <c r="A634">
-        <v>1706274000</v>
+        <v>1706263200</v>
       </c>
       <c r="B634" t="s">
         <v>619</v>
@@ -22845,7 +22845,7 @@
     </row>
     <row r="635" spans="1:10">
       <c r="A635">
-        <v>1706277600</v>
+        <v>1706266800</v>
       </c>
       <c r="B635" t="s">
         <v>620</v>
@@ -22877,7 +22877,7 @@
     </row>
     <row r="636" spans="1:10">
       <c r="A636">
-        <v>1706281200</v>
+        <v>1706270400</v>
       </c>
       <c r="B636" t="s">
         <v>621</v>
@@ -22909,7 +22909,7 @@
     </row>
     <row r="637" spans="1:10">
       <c r="A637">
-        <v>1706284800</v>
+        <v>1706274000</v>
       </c>
       <c r="B637" t="s">
         <v>622</v>
@@ -22941,7 +22941,7 @@
     </row>
     <row r="638" spans="1:10">
       <c r="A638">
-        <v>1706288400</v>
+        <v>1706277600</v>
       </c>
       <c r="B638" t="s">
         <v>623</v>
@@ -22973,7 +22973,7 @@
     </row>
     <row r="639" spans="1:10">
       <c r="A639">
-        <v>1706292000</v>
+        <v>1706281200</v>
       </c>
       <c r="B639" t="s">
         <v>624</v>
@@ -23005,7 +23005,7 @@
     </row>
     <row r="640" spans="1:10">
       <c r="A640">
-        <v>1706295600</v>
+        <v>1706284800</v>
       </c>
       <c r="B640" t="s">
         <v>625</v>
@@ -23037,7 +23037,7 @@
     </row>
     <row r="641" spans="1:10">
       <c r="A641">
-        <v>1706299200</v>
+        <v>1706288400</v>
       </c>
       <c r="B641" t="s">
         <v>626</v>
@@ -23069,7 +23069,7 @@
     </row>
     <row r="642" spans="1:10">
       <c r="A642">
-        <v>1706302800</v>
+        <v>1706292000</v>
       </c>
       <c r="B642" t="s">
         <v>627</v>
@@ -23101,7 +23101,7 @@
     </row>
     <row r="643" spans="1:10">
       <c r="A643">
-        <v>1706306400</v>
+        <v>1706295600</v>
       </c>
       <c r="B643" t="s">
         <v>628</v>
@@ -23133,7 +23133,7 @@
     </row>
     <row r="644" spans="1:10">
       <c r="A644">
-        <v>1706310000</v>
+        <v>1706299200</v>
       </c>
       <c r="B644" t="s">
         <v>629</v>
@@ -23165,7 +23165,7 @@
     </row>
     <row r="645" spans="1:10">
       <c r="A645">
-        <v>1706313600</v>
+        <v>1706302800</v>
       </c>
       <c r="B645" t="s">
         <v>630</v>
@@ -23197,7 +23197,7 @@
     </row>
     <row r="646" spans="1:10">
       <c r="A646">
-        <v>1706317200</v>
+        <v>1706306400</v>
       </c>
       <c r="B646" t="s">
         <v>631</v>
@@ -23229,7 +23229,7 @@
     </row>
     <row r="647" spans="1:10">
       <c r="A647">
-        <v>1706320800</v>
+        <v>1706310000</v>
       </c>
       <c r="B647" t="s">
         <v>632</v>
@@ -23261,7 +23261,7 @@
     </row>
     <row r="648" spans="1:10">
       <c r="A648">
-        <v>1706324400</v>
+        <v>1706313600</v>
       </c>
       <c r="B648" t="s">
         <v>633</v>
@@ -23293,7 +23293,7 @@
     </row>
     <row r="649" spans="1:10">
       <c r="A649">
-        <v>1706328000</v>
+        <v>1706317200</v>
       </c>
       <c r="B649" t="s">
         <v>634</v>
@@ -23325,7 +23325,7 @@
     </row>
     <row r="650" spans="1:10">
       <c r="A650">
-        <v>1706331600</v>
+        <v>1706320800</v>
       </c>
       <c r="B650" t="s">
         <v>635</v>
@@ -23357,7 +23357,7 @@
     </row>
     <row r="651" spans="1:10">
       <c r="A651">
-        <v>1706335200</v>
+        <v>1706324400</v>
       </c>
       <c r="B651" t="s">
         <v>636</v>
@@ -23389,7 +23389,7 @@
     </row>
     <row r="652" spans="1:10">
       <c r="A652">
-        <v>1706338800</v>
+        <v>1706328000</v>
       </c>
       <c r="B652" t="s">
         <v>637</v>
@@ -23421,7 +23421,7 @@
     </row>
     <row r="653" spans="1:10">
       <c r="A653">
-        <v>1706342400</v>
+        <v>1706331600</v>
       </c>
       <c r="B653" t="s">
         <v>638</v>
@@ -23453,7 +23453,7 @@
     </row>
     <row r="654" spans="1:10">
       <c r="A654">
-        <v>1706346000</v>
+        <v>1706335200</v>
       </c>
       <c r="B654" t="s">
         <v>639</v>
@@ -23485,7 +23485,7 @@
     </row>
     <row r="655" spans="1:10">
       <c r="A655">
-        <v>1706349600</v>
+        <v>1706338800</v>
       </c>
       <c r="B655" t="s">
         <v>640</v>
@@ -23517,7 +23517,7 @@
     </row>
     <row r="656" spans="1:10">
       <c r="A656">
-        <v>1706353200</v>
+        <v>1706342400</v>
       </c>
       <c r="B656" t="s">
         <v>641</v>
@@ -23549,7 +23549,7 @@
     </row>
     <row r="657" spans="1:10">
       <c r="A657">
-        <v>1706356800</v>
+        <v>1706346000</v>
       </c>
       <c r="B657" t="s">
         <v>642</v>
@@ -23581,7 +23581,7 @@
     </row>
     <row r="658" spans="1:10">
       <c r="A658">
-        <v>1706360400</v>
+        <v>1706349600</v>
       </c>
       <c r="B658" t="s">
         <v>643</v>
@@ -23613,7 +23613,7 @@
     </row>
     <row r="659" spans="1:10">
       <c r="A659">
-        <v>1706364000</v>
+        <v>1706353200</v>
       </c>
       <c r="B659" t="s">
         <v>644</v>
@@ -23645,7 +23645,7 @@
     </row>
     <row r="660" spans="1:10">
       <c r="A660">
-        <v>1706367600</v>
+        <v>1706356800</v>
       </c>
       <c r="B660" t="s">
         <v>645</v>
@@ -23677,7 +23677,7 @@
     </row>
     <row r="661" spans="1:10">
       <c r="A661">
-        <v>1706371200</v>
+        <v>1706360400</v>
       </c>
       <c r="B661" t="s">
         <v>646</v>
@@ -23709,7 +23709,7 @@
     </row>
     <row r="662" spans="1:10">
       <c r="A662">
-        <v>1706374800</v>
+        <v>1706364000</v>
       </c>
       <c r="B662" t="s">
         <v>647</v>
@@ -23741,7 +23741,7 @@
     </row>
     <row r="663" spans="1:10">
       <c r="A663">
-        <v>1706378400</v>
+        <v>1706367600</v>
       </c>
       <c r="B663" t="s">
         <v>648</v>
@@ -23773,7 +23773,7 @@
     </row>
     <row r="664" spans="1:10">
       <c r="A664">
-        <v>1706382000</v>
+        <v>1706371200</v>
       </c>
       <c r="B664" t="s">
         <v>649</v>
@@ -23805,7 +23805,7 @@
     </row>
     <row r="665" spans="1:10">
       <c r="A665">
-        <v>1706385600</v>
+        <v>1706374800</v>
       </c>
       <c r="B665" t="s">
         <v>650</v>
@@ -23837,7 +23837,7 @@
     </row>
     <row r="666" spans="1:10">
       <c r="A666">
-        <v>1706389200</v>
+        <v>1706378400</v>
       </c>
       <c r="B666" t="s">
         <v>651</v>
@@ -23869,7 +23869,7 @@
     </row>
     <row r="667" spans="1:10">
       <c r="A667">
-        <v>1706392800</v>
+        <v>1706382000</v>
       </c>
       <c r="B667" t="s">
         <v>652</v>
@@ -23901,7 +23901,7 @@
     </row>
     <row r="668" spans="1:10">
       <c r="A668">
-        <v>1706396400</v>
+        <v>1706385600</v>
       </c>
       <c r="B668" t="s">
         <v>653</v>
@@ -23933,7 +23933,7 @@
     </row>
     <row r="669" spans="1:10">
       <c r="A669">
-        <v>1706400000</v>
+        <v>1706389200</v>
       </c>
       <c r="B669" t="s">
         <v>654</v>
@@ -23965,7 +23965,7 @@
     </row>
     <row r="670" spans="1:10">
       <c r="A670">
-        <v>1706403600</v>
+        <v>1706392800</v>
       </c>
       <c r="B670" t="s">
         <v>655</v>
@@ -23997,7 +23997,7 @@
     </row>
     <row r="671" spans="1:10">
       <c r="A671">
-        <v>1706407200</v>
+        <v>1706396400</v>
       </c>
       <c r="B671" t="s">
         <v>656</v>
@@ -24029,7 +24029,7 @@
     </row>
     <row r="672" spans="1:10">
       <c r="A672">
-        <v>1706410800</v>
+        <v>1706400000</v>
       </c>
       <c r="B672" t="s">
         <v>657</v>
@@ -24061,7 +24061,7 @@
     </row>
     <row r="673" spans="1:10">
       <c r="A673">
-        <v>1706414400</v>
+        <v>1706403600</v>
       </c>
       <c r="B673" t="s">
         <v>658</v>
@@ -24093,7 +24093,7 @@
     </row>
     <row r="674" spans="1:10">
       <c r="A674">
-        <v>1706418000</v>
+        <v>1706407200</v>
       </c>
       <c r="B674" t="s">
         <v>659</v>
@@ -24125,7 +24125,7 @@
     </row>
     <row r="675" spans="1:10">
       <c r="A675">
-        <v>1706421600</v>
+        <v>1706410800</v>
       </c>
       <c r="B675" t="s">
         <v>660</v>
@@ -24157,7 +24157,7 @@
     </row>
     <row r="676" spans="1:10">
       <c r="A676">
-        <v>1706425200</v>
+        <v>1706414400</v>
       </c>
       <c r="B676" t="s">
         <v>661</v>
@@ -24189,7 +24189,7 @@
     </row>
     <row r="677" spans="1:10">
       <c r="A677">
-        <v>1706428800</v>
+        <v>1706418000</v>
       </c>
       <c r="B677" t="s">
         <v>662</v>
@@ -24221,7 +24221,7 @@
     </row>
     <row r="678" spans="1:10">
       <c r="A678">
-        <v>1706432400</v>
+        <v>1706421600</v>
       </c>
       <c r="B678" t="s">
         <v>663</v>
@@ -24253,7 +24253,7 @@
     </row>
     <row r="679" spans="1:10">
       <c r="A679">
-        <v>1706436000</v>
+        <v>1706425200</v>
       </c>
       <c r="B679" t="s">
         <v>664</v>
@@ -24285,7 +24285,7 @@
     </row>
     <row r="680" spans="1:10">
       <c r="A680">
-        <v>1706439600</v>
+        <v>1706428800</v>
       </c>
       <c r="B680" t="s">
         <v>665</v>
@@ -24317,7 +24317,7 @@
     </row>
     <row r="681" spans="1:10">
       <c r="A681">
-        <v>1706443200</v>
+        <v>1706432400</v>
       </c>
       <c r="B681" t="s">
         <v>666</v>
@@ -24349,7 +24349,7 @@
     </row>
     <row r="682" spans="1:10">
       <c r="A682">
-        <v>1706446800</v>
+        <v>1706436000</v>
       </c>
       <c r="B682" t="s">
         <v>667</v>
@@ -24381,7 +24381,7 @@
     </row>
     <row r="683" spans="1:10">
       <c r="A683">
-        <v>1706450400</v>
+        <v>1706439600</v>
       </c>
       <c r="B683" t="s">
         <v>668</v>
@@ -24413,7 +24413,7 @@
     </row>
     <row r="684" spans="1:10">
       <c r="A684">
-        <v>1706454000</v>
+        <v>1706443200</v>
       </c>
       <c r="B684" t="s">
         <v>669</v>
@@ -24445,7 +24445,7 @@
     </row>
     <row r="685" spans="1:10">
       <c r="A685">
-        <v>1706457600</v>
+        <v>1706446800</v>
       </c>
       <c r="B685" t="s">
         <v>670</v>
@@ -24477,7 +24477,7 @@
     </row>
     <row r="686" spans="1:10">
       <c r="A686">
-        <v>1706461200</v>
+        <v>1706450400</v>
       </c>
       <c r="B686" t="s">
         <v>671</v>
@@ -24509,7 +24509,7 @@
     </row>
     <row r="687" spans="1:10">
       <c r="A687">
-        <v>1706464800</v>
+        <v>1706454000</v>
       </c>
       <c r="B687" t="s">
         <v>672</v>
@@ -24541,7 +24541,7 @@
     </row>
     <row r="688" spans="1:10">
       <c r="A688">
-        <v>1706468400</v>
+        <v>1706457600</v>
       </c>
       <c r="B688" t="s">
         <v>673</v>
@@ -24573,7 +24573,7 @@
     </row>
     <row r="689" spans="1:10">
       <c r="A689">
-        <v>1706472000</v>
+        <v>1706461200</v>
       </c>
       <c r="B689" t="s">
         <v>674</v>
@@ -24605,7 +24605,7 @@
     </row>
     <row r="690" spans="1:10">
       <c r="A690">
-        <v>1706475600</v>
+        <v>1706464800</v>
       </c>
       <c r="B690" t="s">
         <v>675</v>
@@ -24637,7 +24637,7 @@
     </row>
     <row r="691" spans="1:10">
       <c r="A691">
-        <v>1706479200</v>
+        <v>1706468400</v>
       </c>
       <c r="B691" t="s">
         <v>676</v>
@@ -24669,7 +24669,7 @@
     </row>
     <row r="692" spans="1:10">
       <c r="A692">
-        <v>1706482800</v>
+        <v>1706472000</v>
       </c>
       <c r="B692" t="s">
         <v>677</v>
@@ -24701,7 +24701,7 @@
     </row>
     <row r="693" spans="1:10">
       <c r="A693">
-        <v>1706486400</v>
+        <v>1706475600</v>
       </c>
       <c r="B693" t="s">
         <v>678</v>
@@ -24733,7 +24733,7 @@
     </row>
     <row r="694" spans="1:10">
       <c r="A694">
-        <v>1706490000</v>
+        <v>1706479200</v>
       </c>
       <c r="B694" t="s">
         <v>679</v>
@@ -24765,7 +24765,7 @@
     </row>
     <row r="695" spans="1:10">
       <c r="A695">
-        <v>1706493600</v>
+        <v>1706482800</v>
       </c>
       <c r="B695" t="s">
         <v>680</v>
@@ -24797,7 +24797,7 @@
     </row>
     <row r="696" spans="1:10">
       <c r="A696">
-        <v>1706497200</v>
+        <v>1706486400</v>
       </c>
       <c r="B696" t="s">
         <v>681</v>
@@ -24829,7 +24829,7 @@
     </row>
     <row r="697" spans="1:10">
       <c r="A697">
-        <v>1706500800</v>
+        <v>1706490000</v>
       </c>
       <c r="B697" t="s">
         <v>682</v>
@@ -24861,7 +24861,7 @@
     </row>
     <row r="698" spans="1:10">
       <c r="A698">
-        <v>1706504400</v>
+        <v>1706493600</v>
       </c>
       <c r="B698" t="s">
         <v>683</v>
@@ -24893,7 +24893,7 @@
     </row>
     <row r="699" spans="1:10">
       <c r="A699">
-        <v>1706508000</v>
+        <v>1706497200</v>
       </c>
       <c r="B699" t="s">
         <v>684</v>
@@ -24925,7 +24925,7 @@
     </row>
     <row r="700" spans="1:10">
       <c r="A700">
-        <v>1706511600</v>
+        <v>1706500800</v>
       </c>
       <c r="B700" t="s">
         <v>685</v>
@@ -24957,7 +24957,7 @@
     </row>
     <row r="701" spans="1:10">
       <c r="A701">
-        <v>1706515200</v>
+        <v>1706504400</v>
       </c>
       <c r="B701" t="s">
         <v>686</v>
@@ -24989,7 +24989,7 @@
     </row>
     <row r="702" spans="1:10">
       <c r="A702">
-        <v>1706518800</v>
+        <v>1706508000</v>
       </c>
       <c r="B702" t="s">
         <v>687</v>
@@ -25021,7 +25021,7 @@
     </row>
     <row r="703" spans="1:10">
       <c r="A703">
-        <v>1706522400</v>
+        <v>1706511600</v>
       </c>
       <c r="B703" t="s">
         <v>688</v>
@@ -25053,7 +25053,7 @@
     </row>
     <row r="704" spans="1:10">
       <c r="A704">
-        <v>1706526000</v>
+        <v>1706515200</v>
       </c>
       <c r="B704" t="s">
         <v>689</v>
@@ -25085,7 +25085,7 @@
     </row>
     <row r="705" spans="1:10">
       <c r="A705">
-        <v>1706529600</v>
+        <v>1706518800</v>
       </c>
       <c r="B705" t="s">
         <v>690</v>
@@ -25117,7 +25117,7 @@
     </row>
     <row r="706" spans="1:10">
       <c r="A706">
-        <v>1706533200</v>
+        <v>1706522400</v>
       </c>
       <c r="B706" t="s">
         <v>691</v>
@@ -25149,7 +25149,7 @@
     </row>
     <row r="707" spans="1:10">
       <c r="A707">
-        <v>1706536800</v>
+        <v>1706526000</v>
       </c>
       <c r="B707" t="s">
         <v>692</v>
@@ -25181,7 +25181,7 @@
     </row>
     <row r="708" spans="1:10">
       <c r="A708">
-        <v>1706540400</v>
+        <v>1706529600</v>
       </c>
       <c r="B708" t="s">
         <v>693</v>
@@ -25213,7 +25213,7 @@
     </row>
     <row r="709" spans="1:10">
       <c r="A709">
-        <v>1706544000</v>
+        <v>1706533200</v>
       </c>
       <c r="B709" t="s">
         <v>694</v>
@@ -25245,7 +25245,7 @@
     </row>
     <row r="710" spans="1:10">
       <c r="A710">
-        <v>1706547600</v>
+        <v>1706536800</v>
       </c>
       <c r="B710" t="s">
         <v>695</v>
@@ -25277,7 +25277,7 @@
     </row>
     <row r="711" spans="1:10">
       <c r="A711">
-        <v>1706551200</v>
+        <v>1706540400</v>
       </c>
       <c r="B711" t="s">
         <v>696</v>
@@ -25309,7 +25309,7 @@
     </row>
     <row r="712" spans="1:10">
       <c r="A712">
-        <v>1706554800</v>
+        <v>1706544000</v>
       </c>
       <c r="B712" t="s">
         <v>697</v>
@@ -25341,7 +25341,7 @@
     </row>
     <row r="713" spans="1:10">
       <c r="A713">
-        <v>1706558400</v>
+        <v>1706547600</v>
       </c>
       <c r="B713" t="s">
         <v>698</v>
@@ -25373,7 +25373,7 @@
     </row>
     <row r="714" spans="1:10">
       <c r="A714">
-        <v>1706562000</v>
+        <v>1706551200</v>
       </c>
       <c r="B714" t="s">
         <v>699</v>
@@ -25405,7 +25405,7 @@
     </row>
     <row r="715" spans="1:10">
       <c r="A715">
-        <v>1706565600</v>
+        <v>1706554800</v>
       </c>
       <c r="B715" t="s">
         <v>700</v>
@@ -25437,7 +25437,7 @@
     </row>
     <row r="716" spans="1:10">
       <c r="A716">
-        <v>1706569200</v>
+        <v>1706558400</v>
       </c>
       <c r="B716" t="s">
         <v>701</v>
@@ -25469,7 +25469,7 @@
     </row>
     <row r="717" spans="1:10">
       <c r="A717">
-        <v>1706572800</v>
+        <v>1706562000</v>
       </c>
       <c r="B717" t="s">
         <v>702</v>
@@ -25501,7 +25501,7 @@
     </row>
     <row r="718" spans="1:10">
       <c r="A718">
-        <v>1706576400</v>
+        <v>1706565600</v>
       </c>
       <c r="B718" t="s">
         <v>703</v>
@@ -25533,7 +25533,7 @@
     </row>
     <row r="719" spans="1:10">
       <c r="A719">
-        <v>1706580000</v>
+        <v>1706569200</v>
       </c>
       <c r="B719" t="s">
         <v>704</v>
@@ -25565,7 +25565,7 @@
     </row>
     <row r="720" spans="1:10">
       <c r="A720">
-        <v>1706583600</v>
+        <v>1706572800</v>
       </c>
       <c r="B720" t="s">
         <v>705</v>
@@ -25597,7 +25597,7 @@
     </row>
     <row r="721" spans="1:10">
       <c r="A721">
-        <v>1706587200</v>
+        <v>1706576400</v>
       </c>
       <c r="B721" t="s">
         <v>706</v>
@@ -25629,7 +25629,7 @@
     </row>
     <row r="722" spans="1:10">
       <c r="A722">
-        <v>1706590800</v>
+        <v>1706580000</v>
       </c>
       <c r="B722" t="s">
         <v>707</v>
@@ -25661,7 +25661,7 @@
     </row>
     <row r="723" spans="1:10">
       <c r="A723">
-        <v>1706594400</v>
+        <v>1706583600</v>
       </c>
       <c r="B723" t="s">
         <v>708</v>
@@ -25693,7 +25693,7 @@
     </row>
     <row r="724" spans="1:10">
       <c r="A724">
-        <v>1706598000</v>
+        <v>1706587200</v>
       </c>
       <c r="B724" t="s">
         <v>709</v>
@@ -25725,7 +25725,7 @@
     </row>
     <row r="725" spans="1:10">
       <c r="A725">
-        <v>1706601600</v>
+        <v>1706590800</v>
       </c>
       <c r="B725" t="s">
         <v>710</v>
@@ -25757,7 +25757,7 @@
     </row>
     <row r="726" spans="1:10">
       <c r="A726">
-        <v>1706605200</v>
+        <v>1706594400</v>
       </c>
       <c r="B726" t="s">
         <v>711</v>
@@ -25789,7 +25789,7 @@
     </row>
     <row r="727" spans="1:10">
       <c r="A727">
-        <v>1706608800</v>
+        <v>1706598000</v>
       </c>
       <c r="B727" t="s">
         <v>712</v>
@@ -25821,7 +25821,7 @@
     </row>
     <row r="728" spans="1:10">
       <c r="A728">
-        <v>1706612400</v>
+        <v>1706601600</v>
       </c>
       <c r="B728" t="s">
         <v>713</v>
@@ -25853,7 +25853,7 @@
     </row>
     <row r="729" spans="1:10">
       <c r="A729">
-        <v>1706616000</v>
+        <v>1706605200</v>
       </c>
       <c r="B729" t="s">
         <v>714</v>
@@ -25885,7 +25885,7 @@
     </row>
     <row r="730" spans="1:10">
       <c r="A730">
-        <v>1706619600</v>
+        <v>1706608800</v>
       </c>
       <c r="B730" t="s">
         <v>715</v>
@@ -25917,7 +25917,7 @@
     </row>
     <row r="731" spans="1:10">
       <c r="A731">
-        <v>1706623200</v>
+        <v>1706612400</v>
       </c>
       <c r="B731" t="s">
         <v>716</v>
@@ -25949,7 +25949,7 @@
     </row>
     <row r="732" spans="1:10">
       <c r="A732">
-        <v>1706626800</v>
+        <v>1706616000</v>
       </c>
       <c r="B732" t="s">
         <v>717</v>
@@ -25981,7 +25981,7 @@
     </row>
     <row r="733" spans="1:10">
       <c r="A733">
-        <v>1706630400</v>
+        <v>1706619600</v>
       </c>
       <c r="B733" t="s">
         <v>718</v>
@@ -26013,7 +26013,7 @@
     </row>
     <row r="734" spans="1:10">
       <c r="A734">
-        <v>1706634000</v>
+        <v>1706623200</v>
       </c>
       <c r="B734" t="s">
         <v>719</v>
@@ -26045,7 +26045,7 @@
     </row>
     <row r="735" spans="1:10">
       <c r="A735">
-        <v>1706637600</v>
+        <v>1706626800</v>
       </c>
       <c r="B735" t="s">
         <v>720</v>
@@ -26077,7 +26077,7 @@
     </row>
     <row r="736" spans="1:10">
       <c r="A736">
-        <v>1706641200</v>
+        <v>1706630400</v>
       </c>
       <c r="B736" t="s">
         <v>721</v>
@@ -26109,7 +26109,7 @@
     </row>
     <row r="737" spans="1:10">
       <c r="A737">
-        <v>1706644800</v>
+        <v>1706634000</v>
       </c>
       <c r="B737" t="s">
         <v>722</v>
@@ -26141,7 +26141,7 @@
     </row>
     <row r="738" spans="1:10">
       <c r="A738">
-        <v>1706648400</v>
+        <v>1706637600</v>
       </c>
       <c r="B738" t="s">
         <v>723</v>
@@ -26173,7 +26173,7 @@
     </row>
     <row r="739" spans="1:10">
       <c r="A739">
-        <v>1706652000</v>
+        <v>1706641200</v>
       </c>
       <c r="B739" t="s">
         <v>724</v>
@@ -26205,7 +26205,7 @@
     </row>
     <row r="740" spans="1:10">
       <c r="A740">
-        <v>1706655600</v>
+        <v>1706644800</v>
       </c>
       <c r="B740" t="s">
         <v>725</v>
